--- a/public/template/excel/format_laporan_operasi_2021_preview_new.xlsx
+++ b/public/template/excel/format_laporan_operasi_2021_preview_new.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="302">
   <si>
     <t>NO</t>
   </si>
@@ -966,6 +966,9 @@
   </si>
   <si>
     <t>KORPS LALU LINTAS</t>
+  </si>
+  <si>
+    <t>Laphar H2 Giat Operasi Patuh</t>
   </si>
 </sst>
 </file>
@@ -1309,7 +1312,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1534,6 +1537,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1549,7 +1556,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
@@ -1856,10 +1862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H425"/>
+  <dimension ref="A1:H426"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1916,161 +1922,147 @@
       <c r="G4" s="44"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="86" t="s">
         <v>289</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="84" t="s">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="85"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="86" t="s">
+      <c r="A9" s="87"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C10" s="89" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="88"/>
-      <c r="E9" s="89" t="s">
+      <c r="D10" s="90"/>
+      <c r="E10" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="90"/>
-      <c r="G9" s="86" t="s">
+      <c r="F10" s="92"/>
+      <c r="G10" s="88" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="41">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="88"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="41">
         <v>2019</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D11" s="41">
         <v>2020</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F11" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="86"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="G11" s="88"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>1</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B12" s="10">
         <v>2</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C12" s="11">
         <v>3</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D12" s="11">
         <v>4</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E12" s="10">
         <v>5</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F12" s="10">
         <v>6</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G12" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="10" t="s">
-        <v>8</v>
-      </c>
+      <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="C14" s="47">
-        <v>0</v>
-      </c>
-      <c r="D14" s="47">
-        <v>0</v>
-      </c>
-      <c r="E14" s="14">
-        <f>D14-C14</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="76" t="e">
-        <f>SUM(D14-C14)/C14*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14" s="62" t="s">
-        <v>9</v>
-      </c>
+      <c r="A14" s="4">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>10</v>
+        <v>284</v>
       </c>
       <c r="C15" s="47">
         <v>0</v>
@@ -2079,11 +2071,11 @@
         <v>0</v>
       </c>
       <c r="E15" s="14">
-        <f t="shared" ref="E15:E16" si="0">D15-C15</f>
+        <f>D15-C15</f>
         <v>0</v>
       </c>
       <c r="F15" s="76" t="e">
-        <f t="shared" ref="F15:F78" si="1">SUM(D15-C15)/C15*100</f>
+        <f>SUM(D15-C15)/C15*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G15" s="62" t="s">
@@ -2091,59 +2083,69 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="47">
+        <v>0</v>
+      </c>
+      <c r="D16" s="47">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14">
+        <f t="shared" ref="E16:E17" si="0">D16-C16</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="76" t="e">
+        <f t="shared" ref="F16:F79" si="1">SUM(D16-C16)/C16*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G16" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="47">
-        <f>SUM(C14:C15)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="47">
-        <f>SUM(D14:D15)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="14">
+      <c r="C17" s="47">
+        <f>SUM(C15:C16)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="47">
+        <f>SUM(D15:D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="76" t="e">
+      <c r="F17" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="63" t="s">
+      <c r="G17" s="63" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="60"/>
       <c r="E18" s="14"/>
       <c r="F18" s="76"/>
-      <c r="G18" s="62" t="s">
+      <c r="G18" s="63" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2151,25 +2153,15 @@
       <c r="A19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="47">
-        <v>0</v>
-      </c>
-      <c r="D19" s="47">
-        <v>0</v>
-      </c>
-      <c r="E19" s="14">
-        <f t="shared" ref="E19:E35" si="2">D19-C19</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="76" t="e">
-        <f>SUM(D19-C19)/C19*100</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="76"/>
       <c r="G19" s="62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2177,7 +2169,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="47">
         <v>0</v>
@@ -2186,11 +2178,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E20:E36" si="2">D20-C20</f>
         <v>0</v>
       </c>
       <c r="F20" s="76" t="e">
-        <f t="shared" si="1"/>
+        <f>SUM(D20-C20)/C20*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G20" s="62" t="s">
@@ -2198,9 +2190,11 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
+      <c r="A21" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="B21" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="47">
         <v>0</v>
@@ -2221,11 +2215,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="A22" s="13"/>
       <c r="B22" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="47">
         <v>0</v>
@@ -2250,7 +2242,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="47">
         <v>0</v>
@@ -2275,7 +2267,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="47">
         <v>0</v>
@@ -2296,9 +2288,11 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
+      <c r="A25" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="B25" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="47">
         <v>0</v>
@@ -2321,7 +2315,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="47">
         <v>0</v>
@@ -2344,7 +2338,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="47">
         <v>0</v>
@@ -2367,7 +2361,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="47">
         <v>0</v>
@@ -2390,7 +2384,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="47">
         <v>0</v>
@@ -2413,7 +2407,7 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="47">
         <v>0</v>
@@ -2436,7 +2430,7 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="47">
         <v>0</v>
@@ -2459,7 +2453,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="47">
         <v>0</v>
@@ -2482,7 +2476,7 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="47">
         <v>0</v>
@@ -2503,11 +2497,9 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="A34" s="13"/>
       <c r="B34" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" s="47">
         <v>0</v>
@@ -2532,7 +2524,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" s="47">
         <v>0</v>
@@ -2553,29 +2545,27 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>31</v>
+      <c r="A36" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="C36" s="47">
-        <f>SUM(C19:C35)</f>
         <v>0</v>
       </c>
       <c r="D36" s="47">
-        <f>SUM(D19:D35)</f>
         <v>0</v>
       </c>
       <c r="E36" s="14">
-        <f>D36-C36</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F36" s="76" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G36" s="63" t="s">
+      <c r="G36" s="62" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2584,41 +2574,45 @@
         <v>8</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="47">
+        <f>SUM(C20:C36)</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="47">
+        <f>SUM(D20:D36)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="14">
+        <f>D37-C37</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="76" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="63"/>
-    </row>
-    <row r="38" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="47">
-        <v>0</v>
-      </c>
-      <c r="D38" s="47">
-        <v>0</v>
-      </c>
-      <c r="E38" s="14">
-        <f t="shared" ref="E38:E101" si="3">D38-C38</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="76" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G38" s="62" t="s">
-        <v>9</v>
-      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="63"/>
     </row>
     <row r="39" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" s="47">
         <v>0</v>
@@ -2627,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E39:E102" si="3">D39-C39</f>
         <v>0</v>
       </c>
       <c r="F39" s="76" t="e">
@@ -2641,7 +2635,7 @@
     <row r="40" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40" s="47">
         <v>0</v>
@@ -2664,7 +2658,7 @@
     <row r="41" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="13" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C41" s="47">
         <v>0</v>
@@ -2687,7 +2681,7 @@
     <row r="42" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="13" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C42" s="47">
         <v>0</v>
@@ -2710,7 +2704,7 @@
     <row r="43" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="47">
         <v>0</v>
@@ -2733,7 +2727,7 @@
     <row r="44" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="13" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C44" s="47">
         <v>0</v>
@@ -2756,7 +2750,7 @@
     <row r="45" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C45" s="47">
         <v>0</v>
@@ -2779,7 +2773,7 @@
     <row r="46" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="13" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C46" s="47">
         <v>0</v>
@@ -2802,7 +2796,7 @@
     <row r="47" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47" s="47">
         <v>0</v>
@@ -2825,7 +2819,7 @@
     <row r="48" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="13" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C48" s="47">
         <v>0</v>
@@ -2846,11 +2840,9 @@
       </c>
     </row>
     <row r="49" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="A49" s="4"/>
       <c r="B49" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C49" s="47">
         <v>0</v>
@@ -2875,7 +2867,7 @@
         <v>8</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C50" s="47">
         <v>0</v>
@@ -2900,7 +2892,7 @@
         <v>8</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C51" s="47">
         <v>0</v>
@@ -2925,7 +2917,7 @@
         <v>8</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C52" s="47">
         <v>0</v>
@@ -2950,7 +2942,7 @@
         <v>8</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C53" s="47">
         <v>0</v>
@@ -2971,9 +2963,11 @@
       </c>
     </row>
     <row r="54" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
+      <c r="A54" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="B54" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C54" s="47">
         <v>0</v>
@@ -2993,19 +2987,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>202</v>
+    <row r="55" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="C55" s="47">
-        <f>SUM(C38:C54)</f>
         <v>0</v>
       </c>
       <c r="D55" s="47">
-        <f>SUM(D38:D54)</f>
         <v>0</v>
       </c>
       <c r="E55" s="14">
@@ -3016,57 +3006,57 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G55" s="63" t="s">
+      <c r="G55" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="63"/>
+      <c r="A56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C56" s="47">
+        <f>SUM(C39:C55)</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="47">
+        <f>SUM(D39:D55)</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="76" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G56" s="63" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="63"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C57" s="47">
-        <v>0</v>
-      </c>
-      <c r="D57" s="47">
-        <v>0</v>
-      </c>
-      <c r="E57" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="76" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G57" s="62" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="C58" s="47">
-        <f>SUM(C57)</f>
         <v>0</v>
       </c>
       <c r="D58" s="47">
-        <f>SUM(D57)</f>
         <v>0</v>
       </c>
       <c r="E58" s="14">
@@ -3077,50 +3067,54 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G58" s="63" t="s">
+      <c r="G58" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="16">
+      <c r="A59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C59" s="47">
+        <f>SUM(C58)</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="47">
+        <f>SUM(D58)</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F59" s="76" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G59" s="63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="16">
         <v>3</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B60" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C59" s="47"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="62"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="18"/>
-      <c r="B60" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="C60" s="47">
-        <v>0</v>
-      </c>
-      <c r="D60" s="47">
-        <v>0</v>
-      </c>
-      <c r="E60" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F60" s="76" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G60" s="62" t="s">
-        <v>44</v>
-      </c>
+      <c r="C60" s="47"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="62"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
       <c r="B61" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C61" s="47">
         <v>0</v>
@@ -3143,7 +3137,7 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="18"/>
       <c r="B62" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C62" s="47">
         <v>0</v>
@@ -3165,15 +3159,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
-      <c r="B63" s="17" t="s">
-        <v>174</v>
+      <c r="B63" s="19" t="s">
+        <v>173</v>
       </c>
       <c r="C63" s="47">
-        <f>SUM(C60:C62)</f>
         <v>0</v>
       </c>
       <c r="D63" s="47">
-        <f>SUM(D60:D62)</f>
         <v>0</v>
       </c>
       <c r="E63" s="14">
@@ -3184,54 +3176,54 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G63" s="63" t="s">
+      <c r="G63" s="62" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+      <c r="A64" s="18"/>
+      <c r="B64" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C64" s="47">
+        <f>SUM(C61:C63)</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="47">
+        <f>SUM(D61:D63)</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="76" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G64" s="63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
         <v>4</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="76"/>
-      <c r="G64" s="63"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C65" s="47">
-        <v>0</v>
-      </c>
-      <c r="D65" s="47">
-        <v>0</v>
-      </c>
-      <c r="E65" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F65" s="76" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G65" s="62" t="s">
-        <v>44</v>
-      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="76"/>
+      <c r="G65" s="63"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C66" s="47">
         <v>0</v>
@@ -3256,7 +3248,7 @@
         <v>8</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C67" s="47">
         <v>0</v>
@@ -3277,11 +3269,11 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>47</v>
+      <c r="A68" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="C68" s="47">
         <v>0</v>
@@ -3297,16 +3289,16 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G68" s="64" t="s">
+      <c r="G68" s="62" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>48</v>
+      <c r="A69" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="C69" s="47">
         <v>0</v>
@@ -3322,23 +3314,21 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G69" s="62" t="s">
+      <c r="G69" s="64" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>205</v>
+      <c r="A70" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="C70" s="47">
-        <f>SUM(C65:C69)</f>
         <v>0</v>
       </c>
       <c r="D70" s="47">
-        <f>SUM(D65:D69)</f>
         <v>0</v>
       </c>
       <c r="E70" s="14">
@@ -3349,54 +3339,56 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G70" s="63" t="s">
+      <c r="G70" s="62" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+      <c r="A71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C71" s="47">
+        <f>SUM(C66:C70)</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="47">
+        <f>SUM(D66:D70)</f>
+        <v>0</v>
+      </c>
+      <c r="E71" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="76" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G71" s="63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
         <v>5</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C71" s="11"/>
-      <c r="D71" s="60"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="76"/>
-      <c r="G71" s="63"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C72" s="47">
-        <v>0</v>
-      </c>
-      <c r="D72" s="47">
-        <v>0</v>
-      </c>
-      <c r="E72" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F72" s="76" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G72" s="62" t="s">
-        <v>9</v>
-      </c>
+      <c r="C72" s="11"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="76"/>
+      <c r="G72" s="63"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C73" s="47">
         <v>0</v>
@@ -3421,7 +3413,7 @@
         <v>8</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C74" s="47">
         <v>0</v>
@@ -3446,7 +3438,7 @@
         <v>8</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C75" s="47">
         <v>0</v>
@@ -3471,7 +3463,7 @@
         <v>8</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C76" s="47">
         <v>0</v>
@@ -3496,7 +3488,7 @@
         <v>8</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C77" s="47">
         <v>0</v>
@@ -3521,7 +3513,7 @@
         <v>8</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C78" s="47">
         <v>0</v>
@@ -3542,18 +3534,16 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>206</v>
+      <c r="A79" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="C79" s="47">
-        <f>SUM(C72:C78)</f>
         <v>0</v>
       </c>
       <c r="D79" s="47">
-        <f>SUM(D72:D78)</f>
         <v>0</v>
       </c>
       <c r="E79" s="14">
@@ -3561,55 +3551,57 @@
         <v>0</v>
       </c>
       <c r="F79" s="76" t="e">
-        <f t="shared" ref="F79:F142" si="4">SUM(D79-C79)/C79*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G79" s="63" t="s">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G79" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
+      <c r="A80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C80" s="47">
+        <f>SUM(C73:C79)</f>
+        <v>0</v>
+      </c>
+      <c r="D80" s="47">
+        <f>SUM(D73:D79)</f>
+        <v>0</v>
+      </c>
+      <c r="E80" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F80" s="76" t="e">
+        <f t="shared" ref="F80:F143" si="4">SUM(D80-C80)/C80*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G80" s="63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
         <v>6</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B81" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C80" s="11"/>
-      <c r="D80" s="60"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="76"/>
-      <c r="G80" s="63"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="13" t="s">
+      <c r="C81" s="11"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="76"/>
+      <c r="G81" s="63"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="C81" s="47">
-        <v>0</v>
-      </c>
-      <c r="D81" s="47">
-        <v>0</v>
-      </c>
-      <c r="E81" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F81" s="76" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G81" s="62" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="C82" s="47">
         <v>0</v>
@@ -3634,7 +3626,7 @@
         <v>8</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C83" s="47">
         <v>0</v>
@@ -3659,7 +3651,7 @@
         <v>8</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C84" s="47">
         <v>0</v>
@@ -3684,7 +3676,7 @@
         <v>8</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C85" s="47">
         <v>0</v>
@@ -3705,9 +3697,11 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="13"/>
+      <c r="A86" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="B86" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C86" s="47">
         <v>0</v>
@@ -3730,7 +3724,7 @@
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="13"/>
       <c r="B87" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C87" s="47">
         <v>0</v>
@@ -3753,7 +3747,7 @@
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
       <c r="B88" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C88" s="47">
         <v>0</v>
@@ -3774,11 +3768,9 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="A89" s="13"/>
       <c r="B89" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C89" s="47">
         <v>0</v>
@@ -3799,9 +3791,11 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="13"/>
+      <c r="A90" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="B90" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C90" s="47">
         <v>0</v>
@@ -3824,7 +3818,7 @@
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="13"/>
       <c r="B91" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C91" s="47">
         <v>0</v>
@@ -3845,18 +3839,14 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>206</v>
+      <c r="A92" s="13"/>
+      <c r="B92" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="C92" s="47">
-        <f>SUM(C81:C91)</f>
         <v>0</v>
       </c>
       <c r="D92" s="47">
-        <f>SUM(D81:D91)</f>
         <v>0</v>
       </c>
       <c r="E92" s="14">
@@ -3867,54 +3857,56 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G92" s="63" t="s">
+      <c r="G92" s="62" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
+      <c r="A93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C93" s="47">
+        <f>SUM(C82:C92)</f>
+        <v>0</v>
+      </c>
+      <c r="D93" s="47">
+        <f>SUM(D82:D92)</f>
+        <v>0</v>
+      </c>
+      <c r="E93" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F93" s="76" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G93" s="63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
         <v>7</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B94" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C93" s="11"/>
-      <c r="D93" s="60"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="76"/>
-      <c r="G93" s="63"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C94" s="47">
-        <v>0</v>
-      </c>
-      <c r="D94" s="47">
-        <v>0</v>
-      </c>
-      <c r="E94" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F94" s="76" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G94" s="62" t="s">
-        <v>71</v>
-      </c>
+      <c r="C94" s="11"/>
+      <c r="D94" s="60"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="76"/>
+      <c r="G94" s="63"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C95" s="47">
         <v>0</v>
@@ -3939,7 +3931,7 @@
         <v>8</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C96" s="47">
         <v>0</v>
@@ -3964,7 +3956,7 @@
         <v>8</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C97" s="47">
         <v>0</v>
@@ -3989,7 +3981,7 @@
         <v>8</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C98" s="47">
         <v>0</v>
@@ -4014,7 +4006,7 @@
         <v>8</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C99" s="47">
         <v>0</v>
@@ -4035,9 +4027,11 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="13"/>
+      <c r="A100" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="B100" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C100" s="47">
         <v>0</v>
@@ -4058,11 +4052,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="A101" s="13"/>
       <c r="B101" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C101" s="47">
         <v>0</v>
@@ -4087,7 +4079,7 @@
         <v>8</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C102" s="47">
         <v>0</v>
@@ -4096,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="14">
-        <f t="shared" ref="E102:E104" si="5">D102-C102</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F102" s="76" t="e">
@@ -4112,7 +4104,7 @@
         <v>8</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C103" s="47">
         <v>0</v>
@@ -4121,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="E103" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E103:E105" si="5">D103-C103</f>
         <v>0</v>
       </c>
       <c r="F103" s="76" t="e">
@@ -4133,18 +4125,16 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>207</v>
+      <c r="A104" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="C104" s="47">
-        <f>SUM(C94:C103)</f>
         <v>0</v>
       </c>
       <c r="D104" s="47">
-        <f>SUM(D94:D103)</f>
         <v>0</v>
       </c>
       <c r="E104" s="14">
@@ -4155,27 +4145,43 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G104" s="63" t="s">
+      <c r="G104" s="62" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="4">
+      <c r="A105" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B105" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C105" s="47">
+        <f>SUM(C95:C104)</f>
+        <v>0</v>
+      </c>
+      <c r="D105" s="47">
+        <f>SUM(D95:D104)</f>
+        <v>0</v>
+      </c>
+      <c r="E105" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F105" s="76" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G105" s="63" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>8</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="C105" s="11"/>
-      <c r="D105" s="60"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="76"/>
-      <c r="G105" s="63"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="C106" s="11"/>
       <c r="D106" s="60"/>
@@ -4185,31 +4191,19 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
-      <c r="B107" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C107" s="47">
-        <v>0</v>
-      </c>
-      <c r="D107" s="47">
-        <v>0</v>
-      </c>
-      <c r="E107" s="14">
-        <f t="shared" ref="E107:E112" si="6">D107-C107</f>
-        <v>0</v>
-      </c>
-      <c r="F107" s="76" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G107" s="62" t="s">
-        <v>83</v>
-      </c>
+      <c r="B107" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C107" s="11"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="76"/>
+      <c r="G107" s="63"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C108" s="47">
         <v>0</v>
@@ -4218,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="E108" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="E108:E113" si="6">D108-C108</f>
         <v>0</v>
       </c>
       <c r="F108" s="76" t="e">
@@ -4232,7 +4226,7 @@
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C109" s="47">
         <v>0</v>
@@ -4255,7 +4249,7 @@
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C110" s="47">
         <v>0</v>
@@ -4278,7 +4272,7 @@
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C111" s="47">
         <v>0</v>
@@ -4300,66 +4294,66 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
-      <c r="B112" s="4" t="s">
-        <v>208</v>
+      <c r="B112" s="13" t="s">
+        <v>126</v>
       </c>
       <c r="C112" s="47">
-        <f ca="1">SUM(C107:C112)</f>
         <v>0</v>
       </c>
       <c r="D112" s="47">
         <v>0</v>
       </c>
       <c r="E112" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F112" s="76" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G112" s="63" t="s">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G112" s="62" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C113" s="47"/>
-      <c r="D113" s="60"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="76"/>
-      <c r="G113" s="63"/>
+        <v>208</v>
+      </c>
+      <c r="C113" s="47">
+        <f ca="1">SUM(C108:C113)</f>
+        <v>0</v>
+      </c>
+      <c r="D113" s="47">
+        <v>0</v>
+      </c>
+      <c r="E113" s="14">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F113" s="76" t="e">
+        <f t="shared" ca="1" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G113" s="63" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
-      <c r="B114" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C114" s="47">
-        <v>0</v>
-      </c>
-      <c r="D114" s="47">
-        <v>0</v>
-      </c>
-      <c r="E114" s="14">
-        <f t="shared" ref="E114:E118" si="7">D114-C114</f>
-        <v>0</v>
-      </c>
-      <c r="F114" s="76" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G114" s="62" t="s">
-        <v>83</v>
-      </c>
+      <c r="B114" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C114" s="47"/>
+      <c r="D114" s="60"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="63"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C115" s="47">
         <v>0</v>
@@ -4368,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="E115" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="E115:E119" si="7">D115-C115</f>
         <v>0</v>
       </c>
       <c r="F115" s="76" t="e">
@@ -4382,7 +4376,7 @@
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C116" s="47">
         <v>0</v>
@@ -4405,7 +4399,7 @@
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C117" s="47">
         <v>0</v>
@@ -4427,15 +4421,13 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
-      <c r="B118" s="4" t="s">
-        <v>206</v>
+      <c r="B118" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="C118" s="47">
-        <f>SUM(C114:C117)</f>
         <v>0</v>
       </c>
       <c r="D118" s="47">
-        <f>SUM(D114:D117)</f>
         <v>0</v>
       </c>
       <c r="E118" s="14">
@@ -4446,48 +4438,50 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G118" s="63" t="s">
+      <c r="G118" s="62" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C119" s="11"/>
-      <c r="D119" s="60"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="76"/>
-      <c r="G119" s="63"/>
+        <v>206</v>
+      </c>
+      <c r="C119" s="47">
+        <f>SUM(C115:C118)</f>
+        <v>0</v>
+      </c>
+      <c r="D119" s="47">
+        <f>SUM(D115:D118)</f>
+        <v>0</v>
+      </c>
+      <c r="E119" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F119" s="76" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G119" s="63" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
-      <c r="B120" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C120" s="47">
-        <v>0</v>
-      </c>
-      <c r="D120" s="47">
-        <v>0</v>
-      </c>
-      <c r="E120" s="14">
-        <f t="shared" ref="E120:E124" si="8">D120-C120</f>
-        <v>0</v>
-      </c>
-      <c r="F120" s="76" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G120" s="62" t="s">
-        <v>83</v>
-      </c>
+      <c r="B120" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C120" s="11"/>
+      <c r="D120" s="60"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="76"/>
+      <c r="G120" s="63"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C121" s="47">
         <v>0</v>
@@ -4496,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="E121" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="E121:E125" si="8">D121-C121</f>
         <v>0</v>
       </c>
       <c r="F121" s="76" t="e">
@@ -4510,7 +4504,7 @@
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C122" s="47">
         <v>0</v>
@@ -4533,7 +4527,7 @@
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C123" s="47">
         <v>0</v>
@@ -4555,15 +4549,13 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
-      <c r="B124" s="4" t="s">
-        <v>204</v>
+      <c r="B124" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="C124" s="47">
-        <f>SUM(C120:C123)</f>
         <v>0</v>
       </c>
       <c r="D124" s="47">
-        <f>SUM(D120:D123)</f>
         <v>0</v>
       </c>
       <c r="E124" s="14">
@@ -4574,29 +4566,41 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G124" s="63" t="s">
+      <c r="G124" s="62" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C125" s="47">
+        <f>SUM(C121:C124)</f>
+        <v>0</v>
+      </c>
+      <c r="D125" s="47">
+        <f>SUM(D121:D124)</f>
+        <v>0</v>
+      </c>
+      <c r="E125" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F125" s="76" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G125" s="63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B126" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C125" s="11"/>
-      <c r="D125" s="60"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="76"/>
-      <c r="G125" s="63"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="4">
-        <v>9</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="60"/>
@@ -4605,36 +4609,24 @@
       <c r="G126" s="63"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B127" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C127" s="47">
-        <v>0</v>
-      </c>
-      <c r="D127" s="47">
-        <v>0</v>
-      </c>
-      <c r="E127" s="14">
-        <f t="shared" ref="E127:E131" si="9">D127-C127</f>
-        <v>0</v>
-      </c>
-      <c r="F127" s="76" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G127" s="62" t="s">
-        <v>94</v>
-      </c>
+      <c r="A127" s="4">
+        <v>9</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C127" s="11"/>
+      <c r="D127" s="60"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="76"/>
+      <c r="G127" s="63"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C128" s="47">
         <v>0</v>
@@ -4643,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="E128" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E128:E132" si="9">D128-C128</f>
         <v>0</v>
       </c>
       <c r="F128" s="76" t="e">
@@ -4651,7 +4643,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G128" s="62" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -4659,7 +4651,7 @@
         <v>8</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C129" s="47">
         <v>0</v>
@@ -4684,7 +4676,7 @@
         <v>8</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C130" s="47">
         <v>0</v>
@@ -4709,66 +4701,68 @@
         <v>8</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C131" s="48">
-        <v>100000000</v>
-      </c>
-      <c r="D131" s="48">
-        <v>100000000</v>
+        <v>97</v>
+      </c>
+      <c r="C131" s="47">
+        <v>0</v>
+      </c>
+      <c r="D131" s="47">
+        <v>0</v>
       </c>
       <c r="E131" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F131" s="76">
+      <c r="F131" s="76" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G131" s="62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C132" s="48">
+        <v>100000000</v>
+      </c>
+      <c r="D132" s="48">
+        <v>100000000</v>
+      </c>
+      <c r="E132" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F132" s="76">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G132" s="62" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="4">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
         <v>10</v>
       </c>
-      <c r="B132" s="17" t="s">
+      <c r="B133" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C132" s="11"/>
-      <c r="D132" s="60"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="76"/>
-      <c r="G132" s="62"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="13"/>
-      <c r="B133" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="C133" s="47">
-        <v>0</v>
-      </c>
-      <c r="D133" s="47">
-        <v>0</v>
-      </c>
-      <c r="E133" s="14">
-        <f t="shared" ref="E133:E136" si="10">D133-C133</f>
-        <v>0</v>
-      </c>
-      <c r="F133" s="76" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G133" s="62" t="s">
-        <v>44</v>
-      </c>
+      <c r="C133" s="11"/>
+      <c r="D133" s="60"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="76"/>
+      <c r="G133" s="62"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="13"/>
       <c r="B134" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C134" s="47">
         <v>0</v>
@@ -4777,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="E134:E137" si="10">D134-C134</f>
         <v>0</v>
       </c>
       <c r="F134" s="76" t="e">
@@ -4791,7 +4785,7 @@
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="13"/>
       <c r="B135" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C135" s="47">
         <v>0</v>
@@ -4813,15 +4807,13 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="13"/>
-      <c r="B136" s="17" t="s">
-        <v>174</v>
+      <c r="B136" s="19" t="s">
+        <v>173</v>
       </c>
       <c r="C136" s="47">
-        <f>SUM(C133:C135)</f>
         <v>0</v>
       </c>
       <c r="D136" s="47">
-        <f>SUM(D133:D135)</f>
         <v>0</v>
       </c>
       <c r="E136" s="14">
@@ -4832,54 +4824,54 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G136" s="63" t="s">
+      <c r="G136" s="62" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="4">
+      <c r="A137" s="13"/>
+      <c r="B137" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C137" s="47">
+        <f>SUM(C134:C136)</f>
+        <v>0</v>
+      </c>
+      <c r="D137" s="47">
+        <f>SUM(D134:D136)</f>
+        <v>0</v>
+      </c>
+      <c r="E137" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F137" s="76" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G137" s="63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
         <v>11</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B138" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C137" s="49"/>
-      <c r="D137" s="60"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="76"/>
-      <c r="G137" s="49"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B138" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C138" s="47">
-        <v>0</v>
-      </c>
-      <c r="D138" s="47">
-        <v>0</v>
-      </c>
-      <c r="E138" s="14">
-        <f t="shared" ref="E138:E201" si="11">D138-C138</f>
-        <v>0</v>
-      </c>
-      <c r="F138" s="76" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G138" s="62" t="s">
-        <v>58</v>
-      </c>
+      <c r="C138" s="49"/>
+      <c r="D138" s="60"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="76"/>
+      <c r="G138" s="49"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C139" s="47">
         <v>0</v>
@@ -4888,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="E139" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="E139:E202" si="11">D139-C139</f>
         <v>0</v>
       </c>
       <c r="F139" s="76" t="e">
@@ -4900,11 +4892,11 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B140" s="20" t="s">
-        <v>100</v>
+      <c r="A140" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="C140" s="47">
         <v>0</v>
@@ -4920,16 +4912,16 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G140" s="64" t="s">
+      <c r="G140" s="62" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B141" s="13" t="s">
-        <v>101</v>
+      <c r="A141" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="C141" s="47">
         <v>0</v>
@@ -4945,7 +4937,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G141" s="62" t="s">
+      <c r="G141" s="64" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4954,7 +4946,7 @@
         <v>8</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="C142" s="47">
         <v>0</v>
@@ -4979,7 +4971,7 @@
         <v>8</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C143" s="47">
         <v>0</v>
@@ -4992,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="F143" s="76" t="e">
-        <f t="shared" ref="F143:F206" si="12">SUM(D143-C143)/C143*100</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G143" s="62" t="s">
@@ -5004,7 +4996,7 @@
         <v>8</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C144" s="47">
         <v>0</v>
@@ -5017,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="F144" s="76" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="F144:F207" si="12">SUM(D144-C144)/C144*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G144" s="62" t="s">
@@ -5025,18 +5017,16 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>209</v>
+      <c r="A145" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="C145" s="47">
-        <f>SUM(C138:C144)</f>
         <v>0</v>
       </c>
       <c r="D145" s="47">
-        <f>SUM(D138:D144)</f>
         <v>0</v>
       </c>
       <c r="E145" s="14">
@@ -5047,50 +5037,54 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G145" s="63" t="s">
+      <c r="G145" s="62" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="4">
+      <c r="A146" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C146" s="47">
+        <f>SUM(C139:C145)</f>
+        <v>0</v>
+      </c>
+      <c r="D146" s="47">
+        <f>SUM(D139:D145)</f>
+        <v>0</v>
+      </c>
+      <c r="E146" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F146" s="76" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G146" s="63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
         <v>12</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B147" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C146" s="49"/>
-      <c r="D146" s="60"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="76"/>
-      <c r="G146" s="49"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="4"/>
-      <c r="B147" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C147" s="47">
-        <v>0</v>
-      </c>
-      <c r="D147" s="47">
-        <v>0</v>
-      </c>
-      <c r="E147" s="14">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F147" s="76" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G147" s="62" t="s">
-        <v>58</v>
-      </c>
+      <c r="C147" s="49"/>
+      <c r="D147" s="60"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="76"/>
+      <c r="G147" s="49"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C148" s="47">
         <v>0</v>
@@ -5113,7 +5107,7 @@
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C149" s="47">
         <v>0</v>
@@ -5136,7 +5130,7 @@
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C150" s="47">
         <v>0</v>
@@ -5159,7 +5153,7 @@
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C151" s="47">
         <v>0</v>
@@ -5182,7 +5176,7 @@
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C152" s="47">
         <v>0</v>
@@ -5203,11 +5197,9 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="A153" s="4"/>
       <c r="B153" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C153" s="47">
         <v>0</v>
@@ -5232,7 +5224,7 @@
         <v>8</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C154" s="47">
         <v>0</v>
@@ -5257,7 +5249,7 @@
         <v>8</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C155" s="47">
         <v>0</v>
@@ -5282,7 +5274,7 @@
         <v>8</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C156" s="47">
         <v>0</v>
@@ -5303,11 +5295,11 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>68</v>
+      <c r="A157" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="C157" s="47">
         <v>0</v>
@@ -5323,23 +5315,21 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G157" s="65" t="s">
+      <c r="G157" s="62" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>210</v>
+      <c r="A158" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C158" s="47">
-        <f>SUM(C147:C157)</f>
         <v>0</v>
       </c>
       <c r="D158" s="47">
-        <f>SUM(D147:D157)</f>
         <v>0</v>
       </c>
       <c r="E158" s="14">
@@ -5350,54 +5340,56 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G158" s="63" t="s">
+      <c r="G158" s="65" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="4">
+      <c r="A159" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C159" s="47">
+        <f>SUM(C148:C158)</f>
+        <v>0</v>
+      </c>
+      <c r="D159" s="47">
+        <f>SUM(D148:D158)</f>
+        <v>0</v>
+      </c>
+      <c r="E159" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F159" s="76" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G159" s="63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
         <v>13</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B160" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C159" s="49"/>
-      <c r="D159" s="60"/>
-      <c r="E159" s="14"/>
-      <c r="F159" s="76"/>
-      <c r="G159" s="49"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B160" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C160" s="47">
-        <v>0</v>
-      </c>
-      <c r="D160" s="47">
-        <v>0</v>
-      </c>
-      <c r="E160" s="14">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F160" s="76" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G160" s="62" t="s">
-        <v>71</v>
-      </c>
+      <c r="C160" s="49"/>
+      <c r="D160" s="60"/>
+      <c r="E160" s="14"/>
+      <c r="F160" s="76"/>
+      <c r="G160" s="49"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C161" s="47">
         <v>0</v>
@@ -5422,7 +5414,7 @@
         <v>8</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C162" s="47">
         <v>0</v>
@@ -5447,7 +5439,7 @@
         <v>8</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C163" s="47">
         <v>0</v>
@@ -5472,7 +5464,7 @@
         <v>8</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C164" s="47">
         <v>0</v>
@@ -5497,7 +5489,7 @@
         <v>8</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="C165" s="47">
         <v>0</v>
@@ -5518,9 +5510,11 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="13"/>
+      <c r="A166" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="B166" s="13" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="C166" s="47">
         <v>0</v>
@@ -5541,11 +5535,9 @@
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="A167" s="13"/>
       <c r="B167" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C167" s="47">
         <v>0</v>
@@ -5566,9 +5558,11 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="13"/>
-      <c r="B168" s="21" t="s">
-        <v>79</v>
+      <c r="A168" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="C168" s="47">
         <v>0</v>
@@ -5589,11 +5583,9 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B169" s="13" t="s">
-        <v>80</v>
+      <c r="A169" s="13"/>
+      <c r="B169" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="C169" s="47">
         <v>0</v>
@@ -5614,18 +5606,16 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>209</v>
+      <c r="A170" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="C170" s="47">
-        <f>SUM(C160:C169)</f>
         <v>0</v>
       </c>
       <c r="D170" s="47">
-        <f>SUM(D160:D169)</f>
         <v>0</v>
       </c>
       <c r="E170" s="14">
@@ -5636,54 +5626,56 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G170" s="63" t="s">
+      <c r="G170" s="62" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="4">
+      <c r="A171" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C171" s="47">
+        <f>SUM(C161:C170)</f>
+        <v>0</v>
+      </c>
+      <c r="D171" s="47">
+        <f>SUM(D161:D170)</f>
+        <v>0</v>
+      </c>
+      <c r="E171" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F171" s="76" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G171" s="63" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
         <v>14</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="B172" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C171" s="11"/>
-      <c r="D171" s="60"/>
-      <c r="E171" s="14"/>
-      <c r="F171" s="76"/>
-      <c r="G171" s="63"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B172" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C172" s="47">
-        <v>0</v>
-      </c>
-      <c r="D172" s="47">
-        <v>0</v>
-      </c>
-      <c r="E172" s="14">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F172" s="76" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G172" s="62" t="s">
-        <v>44</v>
-      </c>
+      <c r="C172" s="11"/>
+      <c r="D172" s="60"/>
+      <c r="E172" s="14"/>
+      <c r="F172" s="76"/>
+      <c r="G172" s="63"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C173" s="47">
         <v>0</v>
@@ -5708,7 +5700,7 @@
         <v>8</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C174" s="47">
         <v>0</v>
@@ -5733,7 +5725,7 @@
         <v>8</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C175" s="47">
         <v>0</v>
@@ -5758,7 +5750,7 @@
         <v>8</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C176" s="47">
         <v>0</v>
@@ -5783,7 +5775,7 @@
         <v>8</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="C177" s="47">
         <v>0</v>
@@ -5804,18 +5796,16 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>212</v>
+      <c r="A178" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="C178" s="47">
-        <f>SUM(C172:C177)</f>
         <v>0</v>
       </c>
       <c r="D178" s="47">
-        <f>SUM(D172:D177)</f>
         <v>0</v>
       </c>
       <c r="E178" s="14">
@@ -5826,54 +5816,56 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G178" s="63" t="s">
+      <c r="G178" s="62" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="4">
+      <c r="A179" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C179" s="47">
+        <f>SUM(C173:C178)</f>
+        <v>0</v>
+      </c>
+      <c r="D179" s="47">
+        <f>SUM(D173:D178)</f>
+        <v>0</v>
+      </c>
+      <c r="E179" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F179" s="76" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G179" s="63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="4">
         <v>15</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B180" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C179" s="11"/>
-      <c r="D179" s="60"/>
-      <c r="E179" s="14"/>
-      <c r="F179" s="76"/>
-      <c r="G179" s="63"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B180" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C180" s="47">
-        <v>0</v>
-      </c>
-      <c r="D180" s="47">
-        <v>0</v>
-      </c>
-      <c r="E180" s="14">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F180" s="76" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G180" s="62" t="s">
-        <v>107</v>
-      </c>
+      <c r="C180" s="11"/>
+      <c r="D180" s="60"/>
+      <c r="E180" s="14"/>
+      <c r="F180" s="76"/>
+      <c r="G180" s="63"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C181" s="47">
         <v>0</v>
@@ -5898,7 +5890,7 @@
         <v>8</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C182" s="47">
         <v>0</v>
@@ -5919,9 +5911,11 @@
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="13"/>
+      <c r="A183" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="B183" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C183" s="47">
         <v>0</v>
@@ -5942,11 +5936,9 @@
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="A184" s="13"/>
       <c r="B184" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C184" s="47">
         <v>0</v>
@@ -5971,7 +5963,7 @@
         <v>8</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C185" s="47">
         <v>0</v>
@@ -5996,7 +5988,7 @@
         <v>8</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C186" s="47">
         <v>0</v>
@@ -6017,11 +6009,11 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>114</v>
+      <c r="A187" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="C187" s="47">
         <v>0</v>
@@ -6037,14 +6029,16 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G187" s="65" t="s">
+      <c r="G187" s="62" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="13"/>
-      <c r="B188" s="13" t="s">
-        <v>115</v>
+      <c r="A188" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="C188" s="47">
         <v>0</v>
@@ -6060,16 +6054,14 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G188" s="62" t="s">
+      <c r="G188" s="65" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="A189" s="13"/>
       <c r="B189" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C189" s="47">
         <v>0</v>
@@ -6090,18 +6082,16 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>211</v>
+      <c r="A190" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B190" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="C190" s="47">
-        <f>SUM(C180:C189)</f>
         <v>0</v>
       </c>
       <c r="D190" s="47">
-        <f>SUM(D180:D189)</f>
         <v>0</v>
       </c>
       <c r="E190" s="14">
@@ -6112,54 +6102,56 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G190" s="63" t="s">
+      <c r="G190" s="62" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="4">
+      <c r="A191" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C191" s="47">
+        <f>SUM(C181:C190)</f>
+        <v>0</v>
+      </c>
+      <c r="D191" s="47">
+        <f>SUM(D181:D190)</f>
+        <v>0</v>
+      </c>
+      <c r="E191" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F191" s="76" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G191" s="63" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="4">
         <v>16</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B192" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C191" s="11"/>
-      <c r="D191" s="60"/>
-      <c r="E191" s="14"/>
-      <c r="F191" s="76"/>
-      <c r="G191" s="63"/>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B192" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C192" s="47">
-        <v>0</v>
-      </c>
-      <c r="D192" s="47">
-        <v>0</v>
-      </c>
-      <c r="E192" s="14">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F192" s="76" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G192" s="62" t="s">
-        <v>58</v>
-      </c>
+      <c r="C192" s="11"/>
+      <c r="D192" s="60"/>
+      <c r="E192" s="14"/>
+      <c r="F192" s="76"/>
+      <c r="G192" s="63"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C193" s="47">
         <v>0</v>
@@ -6184,7 +6176,7 @@
         <v>8</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C194" s="47">
         <v>0</v>
@@ -6209,7 +6201,7 @@
         <v>8</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C195" s="47">
         <v>0</v>
@@ -6234,7 +6226,7 @@
         <v>8</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="C196" s="47">
         <v>0</v>
@@ -6259,7 +6251,7 @@
         <v>8</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C197" s="47">
         <v>0</v>
@@ -6284,7 +6276,7 @@
         <v>8</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C198" s="47">
         <v>0</v>
@@ -6305,18 +6297,16 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>212</v>
+      <c r="A199" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B199" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="C199" s="47">
-        <f>SUM(C192:C198)</f>
         <v>0</v>
       </c>
       <c r="D199" s="47">
-        <f>SUM(D192:D198)</f>
         <v>0</v>
       </c>
       <c r="E199" s="14">
@@ -6327,50 +6317,54 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G199" s="63" t="s">
+      <c r="G199" s="62" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="4">
+      <c r="A200" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C200" s="47">
+        <f>SUM(C193:C199)</f>
+        <v>0</v>
+      </c>
+      <c r="D200" s="47">
+        <f>SUM(D193:D199)</f>
+        <v>0</v>
+      </c>
+      <c r="E200" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F200" s="76" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G200" s="63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="4">
         <v>17</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="B201" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C200" s="11"/>
-      <c r="D200" s="60"/>
-      <c r="E200" s="14"/>
-      <c r="F200" s="76"/>
-      <c r="G200" s="63"/>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="4"/>
-      <c r="B201" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C201" s="47">
-        <v>0</v>
-      </c>
-      <c r="D201" s="47">
-        <v>0</v>
-      </c>
-      <c r="E201" s="14">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F201" s="76" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G201" s="62" t="s">
-        <v>58</v>
-      </c>
+      <c r="C201" s="11"/>
+      <c r="D201" s="60"/>
+      <c r="E201" s="14"/>
+      <c r="F201" s="76"/>
+      <c r="G201" s="63"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C202" s="47">
         <v>0</v>
@@ -6379,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="E202" s="14">
-        <f t="shared" ref="E202:E212" si="13">D202-C202</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F202" s="76" t="e">
@@ -6393,7 +6387,7 @@
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C203" s="47">
         <v>0</v>
@@ -6402,7 +6396,7 @@
         <v>0</v>
       </c>
       <c r="E203" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="E203:E213" si="13">D203-C203</f>
         <v>0</v>
       </c>
       <c r="F203" s="76" t="e">
@@ -6416,7 +6410,7 @@
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C204" s="47">
         <v>0</v>
@@ -6439,7 +6433,7 @@
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C205" s="47">
         <v>0</v>
@@ -6462,7 +6456,7 @@
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C206" s="47">
         <v>0</v>
@@ -6485,7 +6479,7 @@
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C207" s="47">
         <v>0</v>
@@ -6498,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="F207" s="76" t="e">
-        <f t="shared" ref="F207:F268" si="14">SUM(D207-C207)/C207*100</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G207" s="62" t="s">
@@ -6506,11 +6500,9 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="A208" s="4"/>
       <c r="B208" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C208" s="47">
         <v>0</v>
@@ -6523,7 +6515,7 @@
         <v>0</v>
       </c>
       <c r="F208" s="76" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="F208:F269" si="14">SUM(D208-C208)/C208*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G208" s="62" t="s">
@@ -6535,7 +6527,7 @@
         <v>8</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C209" s="47">
         <v>0</v>
@@ -6560,7 +6552,7 @@
         <v>8</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C210" s="47">
         <v>0</v>
@@ -6585,7 +6577,7 @@
         <v>8</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C211" s="47">
         <v>0</v>
@@ -6606,18 +6598,16 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B212" s="4" t="s">
-        <v>213</v>
+      <c r="A212" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B212" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="C212" s="47">
-        <f>SUM(C201:C211)</f>
         <v>0</v>
       </c>
       <c r="D212" s="47">
-        <f>SUM(D201:D211)</f>
         <v>0</v>
       </c>
       <c r="E212" s="14">
@@ -6628,54 +6618,56 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G212" s="63" t="s">
+      <c r="G212" s="62" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="22">
+      <c r="A213" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C213" s="47">
+        <f>SUM(C202:C212)</f>
+        <v>0</v>
+      </c>
+      <c r="D213" s="47">
+        <f>SUM(D202:D212)</f>
+        <v>0</v>
+      </c>
+      <c r="E213" s="14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F213" s="76" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G213" s="63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="22">
         <v>18</v>
       </c>
-      <c r="B213" s="22" t="s">
+      <c r="B214" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C213" s="11"/>
-      <c r="D213" s="60"/>
-      <c r="E213" s="14"/>
-      <c r="F213" s="76"/>
-      <c r="G213" s="66"/>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B214" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C214" s="47">
-        <v>0</v>
-      </c>
-      <c r="D214" s="47">
-        <v>0</v>
-      </c>
-      <c r="E214" s="14">
-        <f t="shared" ref="E214:E224" si="15">D214-C214</f>
-        <v>0</v>
-      </c>
-      <c r="F214" s="76" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G214" s="62" t="s">
-        <v>71</v>
-      </c>
+      <c r="C214" s="11"/>
+      <c r="D214" s="60"/>
+      <c r="E214" s="14"/>
+      <c r="F214" s="76"/>
+      <c r="G214" s="66"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C215" s="47">
         <v>0</v>
@@ -6684,7 +6676,7 @@
         <v>0</v>
       </c>
       <c r="E215" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="E215:E225" si="15">D215-C215</f>
         <v>0</v>
       </c>
       <c r="F215" s="76" t="e">
@@ -6700,7 +6692,7 @@
         <v>8</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C216" s="47">
         <v>0</v>
@@ -6725,7 +6717,7 @@
         <v>8</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C217" s="47">
         <v>0</v>
@@ -6750,7 +6742,7 @@
         <v>8</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C218" s="47">
         <v>0</v>
@@ -6775,7 +6767,7 @@
         <v>8</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C219" s="47">
         <v>0</v>
@@ -6796,9 +6788,11 @@
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="13"/>
+      <c r="A220" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="B220" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C220" s="47">
         <v>0</v>
@@ -6821,7 +6815,7 @@
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="13"/>
       <c r="B221" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C221" s="47">
         <v>0</v>
@@ -6842,11 +6836,9 @@
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B222" s="21" t="s">
-        <v>119</v>
+      <c r="A222" s="13"/>
+      <c r="B222" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="C222" s="47">
         <v>0</v>
@@ -6870,8 +6862,8 @@
       <c r="A223" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B223" s="13" t="s">
-        <v>80</v>
+      <c r="B223" s="21" t="s">
+        <v>119</v>
       </c>
       <c r="C223" s="47">
         <v>0</v>
@@ -6892,18 +6884,16 @@
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>214</v>
+      <c r="A224" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B224" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="C224" s="47">
-        <f>SUM(C214:C223)</f>
         <v>0</v>
       </c>
       <c r="D224" s="47">
-        <f>SUM(D214:D223)</f>
         <v>0</v>
       </c>
       <c r="E224" s="14">
@@ -6914,67 +6904,69 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G224" s="63" t="s">
+      <c r="G224" s="62" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="4">
+      <c r="A225" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C225" s="47">
+        <f>SUM(C215:C224)</f>
+        <v>0</v>
+      </c>
+      <c r="D225" s="47">
+        <f>SUM(D215:D224)</f>
+        <v>0</v>
+      </c>
+      <c r="E225" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F225" s="76" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G225" s="63" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="4">
         <v>19</v>
       </c>
-      <c r="B225" s="4" t="s">
+      <c r="B226" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="C225" s="11"/>
-      <c r="D225" s="60"/>
-      <c r="E225" s="14"/>
-      <c r="F225" s="76"/>
-      <c r="G225" s="63"/>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="C226" s="11"/>
       <c r="D226" s="60"/>
       <c r="E226" s="14"/>
       <c r="F226" s="76"/>
-      <c r="G226" s="62"/>
+      <c r="G226" s="63"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B227" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C227" s="47">
-        <v>0</v>
-      </c>
-      <c r="D227" s="47">
-        <v>0</v>
-      </c>
-      <c r="E227" s="14">
-        <f t="shared" ref="E227:E233" si="16">D227-C227</f>
-        <v>0</v>
-      </c>
-      <c r="F227" s="76" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G227" s="62" t="s">
-        <v>9</v>
-      </c>
+      <c r="B227" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C227" s="11"/>
+      <c r="D227" s="60"/>
+      <c r="E227" s="14"/>
+      <c r="F227" s="76"/>
+      <c r="G227" s="62"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C228" s="47">
         <v>0</v>
@@ -6983,7 +6975,7 @@
         <v>0</v>
       </c>
       <c r="E228" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="E228:E234" si="16">D228-C228</f>
         <v>0</v>
       </c>
       <c r="F228" s="76" t="e">
@@ -6999,7 +6991,7 @@
         <v>8</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C229" s="47">
         <v>0</v>
@@ -7024,7 +7016,7 @@
         <v>8</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C230" s="47">
         <v>0</v>
@@ -7045,9 +7037,11 @@
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="13"/>
+      <c r="A231" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="B231" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C231" s="47">
         <v>0</v>
@@ -7068,11 +7062,9 @@
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="A232" s="13"/>
       <c r="B232" s="13" t="s">
-        <v>232</v>
+        <v>126</v>
       </c>
       <c r="C232" s="47">
         <v>0</v>
@@ -7093,18 +7085,16 @@
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B233" s="4" t="s">
-        <v>215</v>
+      <c r="A233" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B233" s="13" t="s">
+        <v>232</v>
       </c>
       <c r="C233" s="47">
-        <f>SUM(C227:C232)</f>
         <v>0</v>
       </c>
       <c r="D233" s="47">
-        <f>SUM(D227:D232)</f>
         <v>0</v>
       </c>
       <c r="E233" s="14">
@@ -7115,7 +7105,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G233" s="63" t="s">
+      <c r="G233" s="62" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7124,45 +7114,47 @@
         <v>8</v>
       </c>
       <c r="B234" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C234" s="47">
+        <f>SUM(C228:C233)</f>
+        <v>0</v>
+      </c>
+      <c r="D234" s="47">
+        <f>SUM(D228:D233)</f>
+        <v>0</v>
+      </c>
+      <c r="E234" s="14">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F234" s="76" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G234" s="63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B235" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C234" s="11"/>
-      <c r="D234" s="60"/>
-      <c r="E234" s="14"/>
-      <c r="F234" s="76"/>
-      <c r="G234" s="63"/>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B235" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C235" s="47">
-        <v>0</v>
-      </c>
-      <c r="D235" s="47">
-        <v>0</v>
-      </c>
-      <c r="E235" s="14">
-        <f t="shared" ref="E235:E245" si="17">D235-C235</f>
-        <v>0</v>
-      </c>
-      <c r="F235" s="76" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G235" s="62" t="s">
-        <v>9</v>
-      </c>
+      <c r="C235" s="11"/>
+      <c r="D235" s="60"/>
+      <c r="E235" s="14"/>
+      <c r="F235" s="76"/>
+      <c r="G235" s="63"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C236" s="47">
         <v>0</v>
@@ -7171,7 +7163,7 @@
         <v>0</v>
       </c>
       <c r="E236" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="E236:E246" si="17">D236-C236</f>
         <v>0</v>
       </c>
       <c r="F236" s="76" t="e">
@@ -7187,7 +7179,7 @@
         <v>8</v>
       </c>
       <c r="B237" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C237" s="47">
         <v>0</v>
@@ -7212,7 +7204,7 @@
         <v>8</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C238" s="47">
         <v>0</v>
@@ -7233,18 +7225,16 @@
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B239" s="4" t="s">
-        <v>216</v>
+      <c r="A239" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B239" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="C239" s="47">
-        <f>SUM(C235:C238)</f>
         <v>0</v>
       </c>
       <c r="D239" s="47">
-        <f>SUM(D235:D238)</f>
         <v>0</v>
       </c>
       <c r="E239" s="14">
@@ -7255,7 +7245,7 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G239" s="63" t="s">
+      <c r="G239" s="62" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7264,45 +7254,47 @@
         <v>8</v>
       </c>
       <c r="B240" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C240" s="47">
+        <f>SUM(C236:C239)</f>
+        <v>0</v>
+      </c>
+      <c r="D240" s="47">
+        <f>SUM(D236:D239)</f>
+        <v>0</v>
+      </c>
+      <c r="E240" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F240" s="76" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G240" s="63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B241" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C240" s="11"/>
-      <c r="D240" s="60"/>
-      <c r="E240" s="14"/>
-      <c r="F240" s="76"/>
-      <c r="G240" s="63"/>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B241" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C241" s="47">
-        <v>0</v>
-      </c>
-      <c r="D241" s="47">
-        <v>0</v>
-      </c>
-      <c r="E241" s="14">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="F241" s="76" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G241" s="62" t="s">
-        <v>9</v>
-      </c>
+      <c r="C241" s="11"/>
+      <c r="D241" s="60"/>
+      <c r="E241" s="14"/>
+      <c r="F241" s="76"/>
+      <c r="G241" s="63"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C242" s="47">
         <v>0</v>
@@ -7327,7 +7319,7 @@
         <v>8</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C243" s="47">
         <v>0</v>
@@ -7352,7 +7344,7 @@
         <v>8</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C244" s="47">
         <v>0</v>
@@ -7373,18 +7365,16 @@
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B245" s="4" t="s">
-        <v>217</v>
+      <c r="A245" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B245" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="C245" s="47">
-        <f>SUM(C241:C244)</f>
         <v>0</v>
       </c>
       <c r="D245" s="47">
-        <f>SUM(D241:D244)</f>
         <v>0</v>
       </c>
       <c r="E245" s="14">
@@ -7395,69 +7385,71 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G245" s="63" t="s">
+      <c r="G245" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" s="4">
+      <c r="A246" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C246" s="47">
+        <f>SUM(C242:C245)</f>
+        <v>0</v>
+      </c>
+      <c r="D246" s="47">
+        <f>SUM(D242:D245)</f>
+        <v>0</v>
+      </c>
+      <c r="E246" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F246" s="76" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G246" s="63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="4">
         <v>20</v>
       </c>
-      <c r="B246" s="4" t="s">
+      <c r="B247" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C246" s="11"/>
-      <c r="D246" s="60"/>
-      <c r="E246" s="14"/>
-      <c r="F246" s="76"/>
-      <c r="G246" s="63"/>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B247" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C247" s="47">
-        <v>0</v>
-      </c>
+      <c r="C247" s="11"/>
       <c r="D247" s="60"/>
       <c r="E247" s="14"/>
       <c r="F247" s="76"/>
-      <c r="G247" s="62"/>
+      <c r="G247" s="63"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C248" s="47">
         <v>0</v>
       </c>
-      <c r="D248" s="47">
-        <v>0</v>
-      </c>
-      <c r="E248" s="14">
-        <f t="shared" ref="E248:E262" si="18">D248-C248</f>
-        <v>0</v>
-      </c>
-      <c r="F248" s="76" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G248" s="62" t="s">
-        <v>9</v>
-      </c>
+      <c r="D248" s="60"/>
+      <c r="E248" s="14"/>
+      <c r="F248" s="76"/>
+      <c r="G248" s="62"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B249" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C249" s="47">
         <v>0</v>
@@ -7466,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="E249" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="E249:E263" si="18">D249-C249</f>
         <v>0</v>
       </c>
       <c r="F249" s="76" t="e">
@@ -7482,7 +7474,7 @@
         <v>8</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C250" s="47">
         <v>0</v>
@@ -7503,9 +7495,11 @@
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251" s="13"/>
+      <c r="A251" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="B251" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C251" s="47">
         <v>0</v>
@@ -7528,7 +7522,7 @@
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="13"/>
       <c r="B252" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C252" s="47">
         <v>0</v>
@@ -7551,7 +7545,7 @@
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="13"/>
       <c r="B253" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C253" s="47">
         <v>0</v>
@@ -7574,7 +7568,7 @@
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="13"/>
       <c r="B254" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C254" s="47">
         <v>0</v>
@@ -7597,7 +7591,7 @@
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="13"/>
       <c r="B255" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C255" s="47">
         <v>0</v>
@@ -7620,7 +7614,7 @@
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="13"/>
       <c r="B256" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C256" s="47">
         <v>0</v>
@@ -7643,7 +7637,7 @@
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="13"/>
       <c r="B257" s="13" t="s">
-        <v>270</v>
+        <v>139</v>
       </c>
       <c r="C257" s="47">
         <v>0</v>
@@ -7666,7 +7660,7 @@
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="13"/>
       <c r="B258" s="13" t="s">
-        <v>140</v>
+        <v>270</v>
       </c>
       <c r="C258" s="47">
         <v>0</v>
@@ -7687,11 +7681,9 @@
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="A259" s="13"/>
       <c r="B259" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C259" s="47">
         <v>0</v>
@@ -7716,7 +7708,7 @@
         <v>8</v>
       </c>
       <c r="B260" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C260" s="47">
         <v>0</v>
@@ -7741,7 +7733,7 @@
         <v>8</v>
       </c>
       <c r="B261" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C261" s="47">
         <v>0</v>
@@ -7766,7 +7758,7 @@
         <v>8</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C262" s="47">
         <v>0</v>
@@ -7787,9 +7779,11 @@
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" s="13"/>
+      <c r="A263" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="B263" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C263" s="47">
         <v>0</v>
@@ -7797,14 +7791,22 @@
       <c r="D263" s="47">
         <v>0</v>
       </c>
-      <c r="E263" s="14"/>
-      <c r="F263" s="76"/>
-      <c r="G263" s="62"/>
+      <c r="E263" s="14">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F263" s="76" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G263" s="62" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="13"/>
       <c r="B264" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C264" s="47">
         <v>0</v>
@@ -7812,22 +7814,14 @@
       <c r="D264" s="47">
         <v>0</v>
       </c>
-      <c r="E264" s="14">
-        <f t="shared" ref="E264:E268" si="19">D264-C264</f>
-        <v>0</v>
-      </c>
-      <c r="F264" s="76" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G264" s="62" t="s">
-        <v>9</v>
-      </c>
+      <c r="E264" s="14"/>
+      <c r="F264" s="76"/>
+      <c r="G264" s="62"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="13"/>
       <c r="B265" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C265" s="47">
         <v>0</v>
@@ -7836,7 +7830,7 @@
         <v>0</v>
       </c>
       <c r="E265" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="E265:E269" si="19">D265-C265</f>
         <v>0</v>
       </c>
       <c r="F265" s="76" t="e">
@@ -7850,7 +7844,7 @@
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="13"/>
       <c r="B266" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C266" s="47">
         <v>0</v>
@@ -7873,7 +7867,7 @@
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="13"/>
       <c r="B267" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C267" s="47">
         <v>0</v>
@@ -7895,15 +7889,13 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="13"/>
-      <c r="B268" s="4" t="s">
-        <v>285</v>
+      <c r="B268" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="C268" s="47">
-        <f>SUM(C247:C267)</f>
         <v>0</v>
       </c>
       <c r="D268" s="47">
-        <f>SUM(D247:D267)</f>
         <v>0</v>
       </c>
       <c r="E268" s="14">
@@ -7914,54 +7906,54 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G268" s="63" t="s">
+      <c r="G268" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A269" s="4">
+      <c r="A269" s="13"/>
+      <c r="B269" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C269" s="47">
+        <f>SUM(C248:C268)</f>
+        <v>0</v>
+      </c>
+      <c r="D269" s="47">
+        <f>SUM(D248:D268)</f>
+        <v>0</v>
+      </c>
+      <c r="E269" s="14">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="F269" s="76" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G269" s="63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="4">
         <v>21</v>
       </c>
-      <c r="B269" s="4" t="s">
+      <c r="B270" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C269" s="11"/>
-      <c r="D269" s="60"/>
-      <c r="E269" s="14"/>
-      <c r="F269" s="76"/>
-      <c r="G269" s="63"/>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B270" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C270" s="47">
-        <v>0</v>
-      </c>
-      <c r="D270" s="47">
-        <v>0</v>
-      </c>
-      <c r="E270" s="14">
-        <f t="shared" ref="E270:E278" si="20">D270-C270</f>
-        <v>0</v>
-      </c>
-      <c r="F270" s="76" t="e">
-        <f t="shared" ref="F270:F333" si="21">SUM(D270-C270)/C270*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G270" s="62" t="s">
-        <v>9</v>
-      </c>
+      <c r="C270" s="11"/>
+      <c r="D270" s="60"/>
+      <c r="E270" s="14"/>
+      <c r="F270" s="76"/>
+      <c r="G270" s="63"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B271" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C271" s="47">
         <v>0</v>
@@ -7970,11 +7962,11 @@
         <v>0</v>
       </c>
       <c r="E271" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E271:E279" si="20">D271-C271</f>
         <v>0</v>
       </c>
       <c r="F271" s="76" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="F271:F334" si="21">SUM(D271-C271)/C271*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G271" s="62" t="s">
@@ -7986,7 +7978,7 @@
         <v>8</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C272" s="47">
         <v>0</v>
@@ -8011,7 +8003,7 @@
         <v>8</v>
       </c>
       <c r="B273" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C273" s="47">
         <v>0</v>
@@ -8036,7 +8028,7 @@
         <v>8</v>
       </c>
       <c r="B274" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C274" s="47">
         <v>0</v>
@@ -8061,7 +8053,7 @@
         <v>8</v>
       </c>
       <c r="B275" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C275" s="47">
         <v>0</v>
@@ -8086,7 +8078,7 @@
         <v>8</v>
       </c>
       <c r="B276" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C276" s="47">
         <v>0</v>
@@ -8107,9 +8099,11 @@
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277" s="13"/>
+      <c r="A277" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="B277" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C277" s="47">
         <v>0</v>
@@ -8130,18 +8124,14 @@
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A278" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B278" s="4" t="s">
-        <v>218</v>
+      <c r="A278" s="13"/>
+      <c r="B278" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="C278" s="47">
-        <f>SUM(C270:C277)</f>
         <v>0</v>
       </c>
       <c r="D278" s="47">
-        <f>SUM(D270:D277)</f>
         <v>0</v>
       </c>
       <c r="E278" s="14">
@@ -8152,54 +8142,56 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G278" s="63" t="s">
+      <c r="G278" s="62" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A279" s="4">
+      <c r="A279" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C279" s="47">
+        <f>SUM(C271:C278)</f>
+        <v>0</v>
+      </c>
+      <c r="D279" s="47">
+        <f>SUM(D271:D278)</f>
+        <v>0</v>
+      </c>
+      <c r="E279" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F279" s="76" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G279" s="63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="4">
         <v>22</v>
       </c>
-      <c r="B279" s="4" t="s">
+      <c r="B280" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C279" s="11"/>
-      <c r="D279" s="60"/>
-      <c r="E279" s="14"/>
-      <c r="F279" s="76"/>
-      <c r="G279" s="63"/>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A280" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B280" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C280" s="47">
-        <v>0</v>
-      </c>
-      <c r="D280" s="47">
-        <v>0</v>
-      </c>
-      <c r="E280" s="14">
-        <f t="shared" ref="E280:E284" si="22">D280-C280</f>
-        <v>0</v>
-      </c>
-      <c r="F280" s="76" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G280" s="62" t="s">
-        <v>9</v>
-      </c>
+      <c r="C280" s="11"/>
+      <c r="D280" s="60"/>
+      <c r="E280" s="14"/>
+      <c r="F280" s="76"/>
+      <c r="G280" s="63"/>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B281" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C281" s="47">
         <v>0</v>
@@ -8208,7 +8200,7 @@
         <v>0</v>
       </c>
       <c r="E281" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="E281:E285" si="22">D281-C281</f>
         <v>0</v>
       </c>
       <c r="F281" s="76" t="e">
@@ -8216,7 +8208,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G281" s="62" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
@@ -8224,7 +8216,7 @@
         <v>8</v>
       </c>
       <c r="B282" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C282" s="47">
         <v>0</v>
@@ -8249,7 +8241,7 @@
         <v>8</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C283" s="47">
         <v>0</v>
@@ -8274,7 +8266,7 @@
         <v>8</v>
       </c>
       <c r="B284" s="13" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="C284" s="47">
         <v>0</v>
@@ -8291,53 +8283,53 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G284" s="62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B285" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C285" s="47">
+        <v>0</v>
+      </c>
+      <c r="D285" s="47">
+        <v>0</v>
+      </c>
+      <c r="E285" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F285" s="76" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G285" s="62" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A285" s="4">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="4">
         <v>23</v>
       </c>
-      <c r="B285" s="4" t="s">
+      <c r="B286" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C285" s="11"/>
-      <c r="D285" s="60"/>
-      <c r="E285" s="14"/>
-      <c r="F285" s="76"/>
-      <c r="G285" s="63"/>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B286" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="C286" s="47">
-        <v>0</v>
-      </c>
-      <c r="D286" s="47">
-        <v>0</v>
-      </c>
-      <c r="E286" s="14">
-        <f t="shared" ref="E286:E290" si="23">D286-C286</f>
-        <v>0</v>
-      </c>
-      <c r="F286" s="76" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G286" s="62" t="s">
-        <v>9</v>
-      </c>
+      <c r="C286" s="11"/>
+      <c r="D286" s="60"/>
+      <c r="E286" s="14"/>
+      <c r="F286" s="76"/>
+      <c r="G286" s="63"/>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>95</v>
+        <v>286</v>
       </c>
       <c r="C287" s="47">
         <v>0</v>
@@ -8346,7 +8338,7 @@
         <v>0</v>
       </c>
       <c r="E287" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="E287:E291" si="23">D287-C287</f>
         <v>0</v>
       </c>
       <c r="F287" s="76" t="e">
@@ -8354,13 +8346,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G287" s="62" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A288" s="18"/>
-      <c r="B288" s="19" t="s">
-        <v>96</v>
+      <c r="A288" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B288" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="C288" s="47">
         <v>0</v>
@@ -8381,11 +8375,9 @@
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A289" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B289" s="13" t="s">
-        <v>97</v>
+      <c r="A289" s="18"/>
+      <c r="B289" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="C289" s="47">
         <v>0</v>
@@ -8410,7 +8402,7 @@
         <v>8</v>
       </c>
       <c r="B290" s="13" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="C290" s="47">
         <v>0</v>
@@ -8427,49 +8419,51 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G290" s="62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B291" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C291" s="47">
+        <v>0</v>
+      </c>
+      <c r="D291" s="47">
+        <v>0</v>
+      </c>
+      <c r="E291" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="F291" s="76" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G291" s="62" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A291" s="4">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="4">
         <v>24</v>
       </c>
-      <c r="B291" s="4" t="s">
+      <c r="B292" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C291" s="11"/>
-      <c r="D291" s="60"/>
-      <c r="E291" s="14"/>
-      <c r="F291" s="76"/>
-      <c r="G291" s="63"/>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A292" s="13"/>
-      <c r="B292" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="C292" s="47">
-        <v>0</v>
-      </c>
-      <c r="D292" s="47">
-        <v>0</v>
-      </c>
-      <c r="E292" s="14">
-        <f t="shared" ref="E292:E296" si="24">D292-C292</f>
-        <v>0</v>
-      </c>
-      <c r="F292" s="76" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G292" s="62" t="s">
-        <v>9</v>
-      </c>
+      <c r="C292" s="11"/>
+      <c r="D292" s="60"/>
+      <c r="E292" s="14"/>
+      <c r="F292" s="76"/>
+      <c r="G292" s="63"/>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="13"/>
       <c r="B293" s="13" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="C293" s="47">
         <v>0</v>
@@ -8478,7 +8472,7 @@
         <v>0</v>
       </c>
       <c r="E293" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="E293:E297" si="24">D293-C293</f>
         <v>0</v>
       </c>
       <c r="F293" s="76" t="e">
@@ -8486,13 +8480,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G293" s="62" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="13"/>
       <c r="B294" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C294" s="47">
         <v>0</v>
@@ -8515,7 +8509,7 @@
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="13"/>
       <c r="B295" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C295" s="47">
         <v>0</v>
@@ -8538,7 +8532,7 @@
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="13"/>
       <c r="B296" s="13" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="C296" s="47">
         <v>0</v>
@@ -8555,53 +8549,51 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G296" s="62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="13"/>
+      <c r="B297" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C297" s="47">
+        <v>0</v>
+      </c>
+      <c r="D297" s="47">
+        <v>0</v>
+      </c>
+      <c r="E297" s="14">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F297" s="76" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G297" s="62" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A297" s="4">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="4">
         <v>25</v>
       </c>
-      <c r="B297" s="4" t="s">
+      <c r="B298" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C297" s="11"/>
-      <c r="D297" s="60"/>
-      <c r="E297" s="14"/>
-      <c r="F297" s="76"/>
-      <c r="G297" s="63"/>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A298" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B298" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C298" s="47">
-        <v>0</v>
-      </c>
-      <c r="D298" s="47">
-        <v>0</v>
-      </c>
-      <c r="E298" s="14">
-        <f t="shared" ref="E298:E302" si="25">D298-C298</f>
-        <v>0</v>
-      </c>
-      <c r="F298" s="76" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G298" s="62" t="s">
-        <v>9</v>
-      </c>
+      <c r="C298" s="11"/>
+      <c r="D298" s="60"/>
+      <c r="E298" s="14"/>
+      <c r="F298" s="76"/>
+      <c r="G298" s="63"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C299" s="47">
         <v>0</v>
@@ -8610,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="E299" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="E299:E303" si="25">D299-C299</f>
         <v>0</v>
       </c>
       <c r="F299" s="76" t="e">
@@ -8618,7 +8610,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G299" s="62" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
@@ -8626,7 +8618,7 @@
         <v>8</v>
       </c>
       <c r="B300" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C300" s="47">
         <v>0</v>
@@ -8651,7 +8643,7 @@
         <v>8</v>
       </c>
       <c r="B301" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C301" s="47">
         <v>0</v>
@@ -8676,7 +8668,7 @@
         <v>8</v>
       </c>
       <c r="B302" s="13" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="C302" s="47">
         <v>0</v>
@@ -8693,49 +8685,51 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G302" s="62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B303" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C303" s="47">
+        <v>0</v>
+      </c>
+      <c r="D303" s="47">
+        <v>0</v>
+      </c>
+      <c r="E303" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F303" s="76" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G303" s="62" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="303" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="4">
+    <row r="304" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="4">
         <v>26</v>
       </c>
-      <c r="B303" s="6" t="s">
+      <c r="B304" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C303" s="49"/>
-      <c r="D303" s="60"/>
-      <c r="E303" s="14"/>
-      <c r="F303" s="76"/>
-      <c r="G303" s="49"/>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A304" s="13"/>
-      <c r="B304" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C304" s="47">
-        <v>0</v>
-      </c>
-      <c r="D304" s="47">
-        <v>0</v>
-      </c>
-      <c r="E304" s="14">
-        <f t="shared" ref="E304:E308" si="26">D304-C304</f>
-        <v>0</v>
-      </c>
-      <c r="F304" s="76" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G304" s="62" t="s">
-        <v>9</v>
-      </c>
+      <c r="C304" s="49"/>
+      <c r="D304" s="60"/>
+      <c r="E304" s="14"/>
+      <c r="F304" s="76"/>
+      <c r="G304" s="49"/>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="13"/>
       <c r="B305" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C305" s="47">
         <v>0</v>
@@ -8744,7 +8738,7 @@
         <v>0</v>
       </c>
       <c r="E305" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="E305:E309" si="26">D305-C305</f>
         <v>0</v>
       </c>
       <c r="F305" s="76" t="e">
@@ -8752,13 +8746,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G305" s="62" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="13"/>
       <c r="B306" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C306" s="47">
         <v>0</v>
@@ -8781,7 +8775,7 @@
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="13"/>
       <c r="B307" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C307" s="47">
         <v>0</v>
@@ -8804,7 +8798,7 @@
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="13"/>
       <c r="B308" s="13" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="C308" s="47">
         <v>0</v>
@@ -8821,49 +8815,49 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G308" s="62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" s="13"/>
+      <c r="B309" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C309" s="47">
+        <v>0</v>
+      </c>
+      <c r="D309" s="47">
+        <v>0</v>
+      </c>
+      <c r="E309" s="14">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="F309" s="76" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G309" s="62" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A309" s="4">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" s="4">
         <v>27</v>
       </c>
-      <c r="B309" s="6" t="s">
+      <c r="B310" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C309" s="49"/>
-      <c r="D309" s="60"/>
-      <c r="E309" s="14"/>
-      <c r="F309" s="76"/>
-      <c r="G309" s="49"/>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A310" s="13"/>
-      <c r="B310" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C310" s="47">
-        <v>0</v>
-      </c>
-      <c r="D310" s="47">
-        <v>0</v>
-      </c>
-      <c r="E310" s="14">
-        <f t="shared" ref="E310:E314" si="27">D310-C310</f>
-        <v>0</v>
-      </c>
-      <c r="F310" s="76" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G310" s="62" t="s">
-        <v>9</v>
-      </c>
+      <c r="C310" s="49"/>
+      <c r="D310" s="60"/>
+      <c r="E310" s="14"/>
+      <c r="F310" s="76"/>
+      <c r="G310" s="49"/>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="13"/>
       <c r="B311" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C311" s="47">
         <v>0</v>
@@ -8872,7 +8866,7 @@
         <v>0</v>
       </c>
       <c r="E311" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="E311:E315" si="27">D311-C311</f>
         <v>0</v>
       </c>
       <c r="F311" s="76" t="e">
@@ -8880,13 +8874,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G311" s="62" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="13"/>
       <c r="B312" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C312" s="47">
         <v>0</v>
@@ -8909,7 +8903,7 @@
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="13"/>
       <c r="B313" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C313" s="47">
         <v>0</v>
@@ -8932,7 +8926,7 @@
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="13"/>
       <c r="B314" s="13" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="C314" s="47">
         <v>0</v>
@@ -8949,49 +8943,49 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G314" s="62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" s="13"/>
+      <c r="B315" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C315" s="47">
+        <v>0</v>
+      </c>
+      <c r="D315" s="47">
+        <v>0</v>
+      </c>
+      <c r="E315" s="14">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="F315" s="76" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G315" s="62" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A315" s="4">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" s="4">
         <v>28</v>
       </c>
-      <c r="B315" s="6" t="s">
+      <c r="B316" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C315" s="49"/>
-      <c r="D315" s="60"/>
-      <c r="E315" s="14"/>
-      <c r="F315" s="76"/>
-      <c r="G315" s="49"/>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A316" s="13"/>
-      <c r="B316" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C316" s="47">
-        <v>0</v>
-      </c>
-      <c r="D316" s="47">
-        <v>0</v>
-      </c>
-      <c r="E316" s="14">
-        <f t="shared" ref="E316:E320" si="28">D316-C316</f>
-        <v>0</v>
-      </c>
-      <c r="F316" s="76" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G316" s="62" t="s">
-        <v>9</v>
-      </c>
+      <c r="C316" s="49"/>
+      <c r="D316" s="60"/>
+      <c r="E316" s="14"/>
+      <c r="F316" s="76"/>
+      <c r="G316" s="49"/>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="13"/>
       <c r="B317" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C317" s="47">
         <v>0</v>
@@ -9000,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="E317" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="E317:E321" si="28">D317-C317</f>
         <v>0</v>
       </c>
       <c r="F317" s="76" t="e">
@@ -9008,13 +9002,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G317" s="62" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="13"/>
       <c r="B318" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C318" s="47">
         <v>0</v>
@@ -9037,7 +9031,7 @@
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="13"/>
       <c r="B319" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C319" s="47">
         <v>0</v>
@@ -9060,7 +9054,7 @@
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="13"/>
       <c r="B320" s="13" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="C320" s="47">
         <v>0</v>
@@ -9077,56 +9071,54 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G320" s="62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" s="13"/>
+      <c r="B321" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C321" s="47">
+        <v>0</v>
+      </c>
+      <c r="D321" s="47">
+        <v>0</v>
+      </c>
+      <c r="E321" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="F321" s="76" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G321" s="62" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A321" s="4">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" s="4">
         <v>29</v>
       </c>
-      <c r="B321" s="4" t="s">
+      <c r="B322" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C321" s="47">
-        <v>0</v>
-      </c>
-      <c r="D321" s="47">
-        <v>0</v>
-      </c>
-      <c r="E321" s="14"/>
-      <c r="F321" s="76"/>
-      <c r="G321" s="63"/>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A322" s="4"/>
-      <c r="B322" s="13" t="s">
+      <c r="C322" s="47">
+        <v>0</v>
+      </c>
+      <c r="D322" s="47">
+        <v>0</v>
+      </c>
+      <c r="E322" s="14"/>
+      <c r="F322" s="76"/>
+      <c r="G322" s="63"/>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" s="4"/>
+      <c r="B323" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C322" s="47">
-        <v>0</v>
-      </c>
-      <c r="D322" s="47">
-        <v>0</v>
-      </c>
-      <c r="E322" s="14">
-        <f t="shared" ref="E322:E328" si="29">D322-C322</f>
-        <v>0</v>
-      </c>
-      <c r="F322" s="76" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G322" s="62" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A323" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B323" s="13" t="s">
-        <v>164</v>
-      </c>
       <c r="C323" s="47">
         <v>0</v>
       </c>
@@ -9134,7 +9126,7 @@
         <v>0</v>
       </c>
       <c r="E323" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="E323:E329" si="29">D323-C323</f>
         <v>0</v>
       </c>
       <c r="F323" s="76" t="e">
@@ -9150,7 +9142,7 @@
         <v>8</v>
       </c>
       <c r="B324" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C324" s="47">
         <v>0</v>
@@ -9175,7 +9167,7 @@
         <v>8</v>
       </c>
       <c r="B325" s="13" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="C325" s="47">
         <v>0</v>
@@ -9192,7 +9184,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G325" s="62" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
@@ -9200,7 +9192,7 @@
         <v>8</v>
       </c>
       <c r="B326" s="13" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="C326" s="47">
         <v>0</v>
@@ -9225,7 +9217,7 @@
         <v>8</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C327" s="47">
         <v>0</v>
@@ -9246,9 +9238,11 @@
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A328" s="13"/>
+      <c r="A328" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="B328" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C328" s="47">
         <v>0</v>
@@ -9265,53 +9259,53 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G328" s="62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" s="13"/>
+      <c r="B329" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C329" s="47">
+        <v>0</v>
+      </c>
+      <c r="D329" s="47">
+        <v>0</v>
+      </c>
+      <c r="E329" s="14">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="F329" s="76" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G329" s="62" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A329" s="4">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" s="4">
         <v>30</v>
       </c>
-      <c r="B329" s="4" t="s">
+      <c r="B330" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C329" s="47">
-        <v>0</v>
-      </c>
-      <c r="D329" s="47">
-        <v>0</v>
-      </c>
-      <c r="E329" s="14"/>
-      <c r="F329" s="76"/>
-      <c r="G329" s="62"/>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A330" s="13"/>
-      <c r="B330" s="13" t="s">
-        <v>225</v>
-      </c>
       <c r="C330" s="47">
         <v>0</v>
       </c>
       <c r="D330" s="47">
         <v>0</v>
       </c>
-      <c r="E330" s="14">
-        <f t="shared" ref="E330:E333" si="30">D330-C330</f>
-        <v>0</v>
-      </c>
-      <c r="F330" s="76" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G330" s="62" t="s">
-        <v>9</v>
-      </c>
+      <c r="E330" s="14"/>
+      <c r="F330" s="76"/>
+      <c r="G330" s="62"/>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="13"/>
       <c r="B331" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C331" s="47">
         <v>0</v>
@@ -9320,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="E331" s="14">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="E331:E334" si="30">D331-C331</f>
         <v>0</v>
       </c>
       <c r="F331" s="76" t="e">
@@ -9334,7 +9328,7 @@
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="13"/>
       <c r="B332" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C332" s="47">
         <v>0</v>
@@ -9357,14 +9351,12 @@
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="13"/>
       <c r="B333" s="13" t="s">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="C333" s="47">
-        <f>SUM(C329:C332)</f>
         <v>0</v>
       </c>
       <c r="D333" s="47">
-        <f>SUM(D329:D332)</f>
         <v>0</v>
       </c>
       <c r="E333" s="14">
@@ -9380,37 +9372,51 @@
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A334" s="9" t="s">
+      <c r="A334" s="13"/>
+      <c r="B334" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C334" s="47">
+        <f>SUM(C330:C333)</f>
+        <v>0</v>
+      </c>
+      <c r="D334" s="47">
+        <f>SUM(D330:D333)</f>
+        <v>0</v>
+      </c>
+      <c r="E334" s="14">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F334" s="76" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G334" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="B334" s="12" t="s">
+      <c r="B335" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="C334" s="50"/>
-      <c r="D334" s="60"/>
-      <c r="E334" s="14"/>
-      <c r="F334" s="76"/>
-      <c r="G334" s="62"/>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A335" s="4">
-        <v>31</v>
-      </c>
-      <c r="B335" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="C335" s="51"/>
+      <c r="C335" s="50"/>
       <c r="D335" s="60"/>
       <c r="E335" s="14"/>
       <c r="F335" s="76"/>
       <c r="G335" s="62"/>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A336" s="13"/>
-      <c r="B336" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="C336" s="52"/>
+      <c r="A336" s="4">
+        <v>31</v>
+      </c>
+      <c r="B336" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C336" s="51"/>
       <c r="D336" s="60"/>
       <c r="E336" s="14"/>
       <c r="F336" s="76"/>
@@ -9418,31 +9424,19 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="13"/>
-      <c r="B337" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="C337" s="47">
-        <v>0</v>
-      </c>
-      <c r="D337" s="47">
-        <v>0</v>
-      </c>
-      <c r="E337" s="14">
-        <f t="shared" ref="E337:E343" si="31">D337-C337</f>
-        <v>0</v>
-      </c>
-      <c r="F337" s="76" t="e">
-        <f t="shared" ref="F337:F398" si="32">SUM(D337-C337)/C337*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G337" s="67" t="s">
-        <v>107</v>
-      </c>
+      <c r="B337" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C337" s="52"/>
+      <c r="D337" s="60"/>
+      <c r="E337" s="14"/>
+      <c r="F337" s="76"/>
+      <c r="G337" s="62"/>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="13"/>
       <c r="B338" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C338" s="47">
         <v>0</v>
@@ -9451,11 +9445,11 @@
         <v>0</v>
       </c>
       <c r="E338" s="14">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="E338:E344" si="31">D338-C338</f>
         <v>0</v>
       </c>
       <c r="F338" s="76" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="F338:F399" si="32">SUM(D338-C338)/C338*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G338" s="67" t="s">
@@ -9465,7 +9459,7 @@
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="13"/>
       <c r="B339" s="25" t="s">
-        <v>272</v>
+        <v>178</v>
       </c>
       <c r="C339" s="47">
         <v>0</v>
@@ -9488,7 +9482,7 @@
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="13"/>
       <c r="B340" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C340" s="47">
         <v>0</v>
@@ -9511,7 +9505,7 @@
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="13"/>
       <c r="B341" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C341" s="47">
         <v>0</v>
@@ -9534,7 +9528,7 @@
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="13"/>
       <c r="B342" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C342" s="47">
         <v>0</v>
@@ -9557,14 +9551,12 @@
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="13"/>
       <c r="B343" s="25" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="C343" s="47">
-        <f>SUM(C337:C342)</f>
         <v>0</v>
       </c>
       <c r="D343" s="47">
-        <f>SUM(D337:D342)</f>
         <v>0</v>
       </c>
       <c r="E343" s="14">
@@ -9575,48 +9567,50 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G343" s="68" t="s">
+      <c r="G343" s="67" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="13"/>
-      <c r="B344" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="C344" s="52"/>
-      <c r="D344" s="60"/>
-      <c r="E344" s="14"/>
-      <c r="F344" s="76"/>
-      <c r="G344" s="62"/>
+      <c r="B344" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="C344" s="47">
+        <f>SUM(C338:C343)</f>
+        <v>0</v>
+      </c>
+      <c r="D344" s="47">
+        <f>SUM(D338:D343)</f>
+        <v>0</v>
+      </c>
+      <c r="E344" s="14">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="F344" s="76" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G344" s="68" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="13"/>
-      <c r="B345" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="C345" s="47">
-        <v>0</v>
-      </c>
-      <c r="D345" s="47">
-        <v>0</v>
-      </c>
-      <c r="E345" s="14">
-        <f t="shared" ref="E345:E349" si="33">D345-C345</f>
-        <v>0</v>
-      </c>
-      <c r="F345" s="76" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G345" s="67" t="s">
-        <v>107</v>
-      </c>
+      <c r="B345" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C345" s="52"/>
+      <c r="D345" s="60"/>
+      <c r="E345" s="14"/>
+      <c r="F345" s="76"/>
+      <c r="G345" s="62"/>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="13"/>
       <c r="B346" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C346" s="47">
         <v>0</v>
@@ -9625,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="E346" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="E346:E350" si="33">D346-C346</f>
         <v>0</v>
       </c>
       <c r="F346" s="76" t="e">
@@ -9639,7 +9633,7 @@
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="13"/>
       <c r="B347" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C347" s="47">
         <v>0</v>
@@ -9662,7 +9656,7 @@
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="13"/>
       <c r="B348" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C348" s="47">
         <v>0</v>
@@ -9685,14 +9679,12 @@
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="13"/>
       <c r="B349" s="25" t="s">
-        <v>288</v>
+        <v>183</v>
       </c>
       <c r="C349" s="47">
-        <f>SUM(C345:C348)</f>
         <v>0</v>
       </c>
       <c r="D349" s="47">
-        <f>SUM(D345:D348)</f>
         <v>0</v>
       </c>
       <c r="E349" s="14">
@@ -9709,42 +9701,44 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="13"/>
-      <c r="B350" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="C350" s="53"/>
-      <c r="D350" s="60"/>
-      <c r="E350" s="14"/>
-      <c r="F350" s="76"/>
-      <c r="G350" s="67"/>
+      <c r="B350" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="C350" s="47">
+        <f>SUM(C346:C349)</f>
+        <v>0</v>
+      </c>
+      <c r="D350" s="47">
+        <f>SUM(D346:D349)</f>
+        <v>0</v>
+      </c>
+      <c r="E350" s="14">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="F350" s="76" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G350" s="67" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="13"/>
-      <c r="B351" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="C351" s="47">
-        <v>0</v>
-      </c>
-      <c r="D351" s="47">
-        <v>0</v>
-      </c>
-      <c r="E351" s="14">
-        <f t="shared" ref="E351:E355" si="34">D351-C351</f>
-        <v>0</v>
-      </c>
-      <c r="F351" s="76" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G351" s="67" t="s">
-        <v>107</v>
-      </c>
+      <c r="B351" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C351" s="53"/>
+      <c r="D351" s="60"/>
+      <c r="E351" s="14"/>
+      <c r="F351" s="76"/>
+      <c r="G351" s="67"/>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="13"/>
       <c r="B352" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C352" s="47">
         <v>0</v>
@@ -9753,7 +9747,7 @@
         <v>0</v>
       </c>
       <c r="E352" s="14">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="E352:E356" si="34">D352-C352</f>
         <v>0</v>
       </c>
       <c r="F352" s="76" t="e">
@@ -9767,7 +9761,7 @@
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="13"/>
       <c r="B353" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C353" s="47">
         <v>0</v>
@@ -9790,7 +9784,7 @@
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="13"/>
       <c r="B354" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C354" s="47">
         <v>0</v>
@@ -9812,15 +9806,13 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="13"/>
-      <c r="B355" s="24" t="s">
-        <v>11</v>
+      <c r="B355" s="25" t="s">
+        <v>188</v>
       </c>
       <c r="C355" s="47">
-        <f>SUM(C351:C354)</f>
         <v>0</v>
       </c>
       <c r="D355" s="47">
-        <f>SUM(D351:D354)</f>
         <v>0</v>
       </c>
       <c r="E355" s="14">
@@ -9831,48 +9823,50 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G355" s="68" t="s">
+      <c r="G355" s="67" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="13"/>
       <c r="B356" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="C356" s="52"/>
-      <c r="D356" s="60"/>
-      <c r="E356" s="14"/>
-      <c r="F356" s="76"/>
-      <c r="G356" s="62"/>
+        <v>11</v>
+      </c>
+      <c r="C356" s="47">
+        <f>SUM(C352:C355)</f>
+        <v>0</v>
+      </c>
+      <c r="D356" s="47">
+        <f>SUM(D352:D355)</f>
+        <v>0</v>
+      </c>
+      <c r="E356" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="F356" s="76" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G356" s="68" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="13"/>
-      <c r="B357" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="C357" s="47">
-        <v>0</v>
-      </c>
-      <c r="D357" s="47">
-        <v>0</v>
-      </c>
-      <c r="E357" s="14">
-        <f t="shared" ref="E357:E364" si="35">D357-C357</f>
-        <v>0</v>
-      </c>
-      <c r="F357" s="76" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G357" s="67" t="s">
-        <v>107</v>
-      </c>
+      <c r="B357" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C357" s="52"/>
+      <c r="D357" s="60"/>
+      <c r="E357" s="14"/>
+      <c r="F357" s="76"/>
+      <c r="G357" s="62"/>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="13"/>
       <c r="B358" s="25" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C358" s="47">
         <v>0</v>
@@ -9881,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="E358" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="E358:E365" si="35">D358-C358</f>
         <v>0</v>
       </c>
       <c r="F358" s="76" t="e">
@@ -9893,9 +9887,9 @@
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A359" s="18"/>
-      <c r="B359" s="19" t="s">
-        <v>200</v>
+      <c r="A359" s="13"/>
+      <c r="B359" s="25" t="s">
+        <v>196</v>
       </c>
       <c r="C359" s="47">
         <v>0</v>
@@ -9916,9 +9910,9 @@
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A360" s="13"/>
-      <c r="B360" s="25" t="s">
-        <v>197</v>
+      <c r="A360" s="18"/>
+      <c r="B360" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="C360" s="47">
         <v>0</v>
@@ -9941,7 +9935,7 @@
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="13"/>
       <c r="B361" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C361" s="47">
         <v>0</v>
@@ -9964,7 +9958,7 @@
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="13"/>
       <c r="B362" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C362" s="47">
         <v>0</v>
@@ -9987,7 +9981,7 @@
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="13"/>
       <c r="B363" s="25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C363" s="47">
         <v>0</v>
@@ -10009,15 +10003,13 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="13"/>
-      <c r="B364" s="24" t="s">
-        <v>11</v>
+      <c r="B364" s="25" t="s">
+        <v>201</v>
       </c>
       <c r="C364" s="47">
-        <f>SUM(C357:C363)</f>
         <v>0</v>
       </c>
       <c r="D364" s="47">
-        <f>SUM(D357:D363)</f>
         <v>0</v>
       </c>
       <c r="E364" s="14">
@@ -10028,63 +10020,65 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G364" s="68" t="s">
+      <c r="G364" s="67" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A365" s="10" t="s">
+      <c r="A365" s="13"/>
+      <c r="B365" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C365" s="47">
+        <f>SUM(C358:C364)</f>
+        <v>0</v>
+      </c>
+      <c r="D365" s="47">
+        <f>SUM(D358:D364)</f>
+        <v>0</v>
+      </c>
+      <c r="E365" s="14">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F365" s="76" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G365" s="68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A366" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B365" s="23" t="s">
+      <c r="B366" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="C365" s="51"/>
-      <c r="D365" s="60"/>
-      <c r="E365" s="14"/>
-      <c r="F365" s="76"/>
-      <c r="G365" s="51"/>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A366" s="26">
-        <v>32</v>
-      </c>
-      <c r="B366" s="23" t="s">
-        <v>195</v>
-      </c>
       <c r="C366" s="51"/>
-      <c r="D366" s="47"/>
+      <c r="D366" s="60"/>
       <c r="E366" s="14"/>
       <c r="F366" s="76"/>
-      <c r="G366" s="62"/>
+      <c r="G366" s="51"/>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A367" s="26"/>
-      <c r="B367" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="C367" s="47">
-        <v>0</v>
-      </c>
-      <c r="D367" s="47">
-        <v>0</v>
-      </c>
-      <c r="E367" s="14">
-        <f t="shared" ref="E367:E371" si="36">D367-C367</f>
-        <v>0</v>
-      </c>
-      <c r="F367" s="76" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G367" s="67" t="s">
-        <v>107</v>
-      </c>
+      <c r="A367" s="26">
+        <v>32</v>
+      </c>
+      <c r="B367" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C367" s="51"/>
+      <c r="D367" s="47"/>
+      <c r="E367" s="14"/>
+      <c r="F367" s="76"/>
+      <c r="G367" s="62"/>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="26"/>
       <c r="B368" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C368" s="47">
         <v>0</v>
@@ -10093,7 +10087,7 @@
         <v>0</v>
       </c>
       <c r="E368" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="E368:E372" si="36">D368-C368</f>
         <v>0</v>
       </c>
       <c r="F368" s="76" t="e">
@@ -10107,7 +10101,7 @@
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="26"/>
       <c r="B369" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C369" s="47">
         <v>0</v>
@@ -10130,7 +10124,7 @@
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="26"/>
       <c r="B370" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C370" s="47">
         <v>0</v>
@@ -10152,15 +10146,13 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="26"/>
-      <c r="B371" s="24" t="s">
-        <v>11</v>
+      <c r="B371" s="25" t="s">
+        <v>194</v>
       </c>
       <c r="C371" s="47">
-        <f>SUM(C367:C370)</f>
         <v>0</v>
       </c>
       <c r="D371" s="47">
-        <f>SUM(D367:D370)</f>
         <v>0</v>
       </c>
       <c r="E371" s="14">
@@ -10171,76 +10163,78 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G371" s="68" t="s">
+      <c r="G371" s="67" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="372" spans="1:7" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="27" t="s">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A372" s="26"/>
+      <c r="B372" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C372" s="47">
+        <f>SUM(C368:C371)</f>
+        <v>0</v>
+      </c>
+      <c r="D372" s="47">
+        <f>SUM(D368:D371)</f>
+        <v>0</v>
+      </c>
+      <c r="E372" s="14">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F372" s="76" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G372" s="68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="B372" s="28" t="s">
+      <c r="B373" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="C372" s="54"/>
-      <c r="D372" s="60"/>
-      <c r="E372" s="14"/>
-      <c r="F372" s="76"/>
-      <c r="G372" s="62"/>
-    </row>
-    <row r="373" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="29">
-        <v>33</v>
-      </c>
-      <c r="B373" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="C373" s="55"/>
+      <c r="C373" s="54"/>
       <c r="D373" s="60"/>
       <c r="E373" s="14"/>
       <c r="F373" s="76"/>
       <c r="G373" s="62"/>
     </row>
-    <row r="374" spans="1:7" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="B374" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="C374" s="56"/>
+    <row r="374" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="29">
+        <v>33</v>
+      </c>
+      <c r="B374" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="C374" s="55"/>
       <c r="D374" s="60"/>
       <c r="E374" s="14"/>
       <c r="F374" s="76"/>
       <c r="G374" s="62"/>
     </row>
-    <row r="375" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="31"/>
-      <c r="B375" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="C375" s="47">
-        <v>0</v>
-      </c>
-      <c r="D375" s="47">
-        <v>0</v>
-      </c>
-      <c r="E375" s="14">
-        <f t="shared" ref="E375:E383" si="37">D375-C375</f>
-        <v>0</v>
-      </c>
-      <c r="F375" s="76" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G375" s="69" t="s">
-        <v>44</v>
-      </c>
+    <row r="375" spans="1:7" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="B375" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="C375" s="56"/>
+      <c r="D375" s="60"/>
+      <c r="E375" s="14"/>
+      <c r="F375" s="76"/>
+      <c r="G375" s="62"/>
     </row>
     <row r="376" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="31"/>
       <c r="B376" s="31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C376" s="47">
         <v>0</v>
@@ -10249,21 +10243,21 @@
         <v>0</v>
       </c>
       <c r="E376" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="E376:E384" si="37">D376-C376</f>
         <v>0</v>
       </c>
       <c r="F376" s="76" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G376" s="70" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G376" s="69" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="31"/>
       <c r="B377" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C377" s="47">
         <v>0</v>
@@ -10280,13 +10274,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G377" s="70" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="31"/>
       <c r="B378" s="31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C378" s="47">
         <v>0</v>
@@ -10303,13 +10297,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G378" s="70" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A379" s="31"/>
-      <c r="B379" s="32" t="s">
-        <v>240</v>
+      <c r="B379" s="31" t="s">
+        <v>239</v>
       </c>
       <c r="C379" s="47">
         <v>0</v>
@@ -10326,13 +10320,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G379" s="70" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="31"/>
       <c r="B380" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C380" s="47">
         <v>0</v>
@@ -10349,13 +10343,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G380" s="70" t="s">
-        <v>44</v>
+        <v>252</v>
       </c>
     </row>
     <row r="381" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" s="31"/>
       <c r="B381" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C381" s="47">
         <v>0</v>
@@ -10372,13 +10366,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G381" s="70" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A382" s="31"/>
       <c r="B382" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C382" s="47">
         <v>0</v>
@@ -10395,13 +10389,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G382" s="70" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="31"/>
       <c r="B383" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C383" s="47">
         <v>0</v>
@@ -10418,49 +10412,49 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G383" s="70" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="31"/>
+      <c r="B384" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="C384" s="47">
+        <v>0</v>
+      </c>
+      <c r="D384" s="47">
+        <v>0</v>
+      </c>
+      <c r="E384" s="14">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="F384" s="76" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G384" s="70" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="384" spans="1:7" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="31" t="s">
+    <row r="385" spans="1:7" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="B384" s="32" t="s">
+      <c r="B385" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="C384" s="57"/>
-      <c r="D384" s="60"/>
-      <c r="E384" s="14"/>
-      <c r="F384" s="76"/>
-      <c r="G384" s="71"/>
-    </row>
-    <row r="385" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="31"/>
-      <c r="B385" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="C385" s="47">
-        <v>0</v>
-      </c>
-      <c r="D385" s="47">
-        <v>0</v>
-      </c>
-      <c r="E385" s="14">
-        <f t="shared" ref="E385:E387" si="38">D385-C385</f>
-        <v>0</v>
-      </c>
-      <c r="F385" s="76" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G385" s="70" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C385" s="57"/>
+      <c r="D385" s="60"/>
+      <c r="E385" s="14"/>
+      <c r="F385" s="76"/>
+      <c r="G385" s="71"/>
+    </row>
+    <row r="386" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" s="31"/>
       <c r="B386" s="32" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C386" s="47">
         <v>0</v>
@@ -10469,7 +10463,7 @@
         <v>0</v>
       </c>
       <c r="E386" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="E386:E388" si="38">D386-C386</f>
         <v>0</v>
       </c>
       <c r="F386" s="76" t="e">
@@ -10477,13 +10471,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G386" s="70" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="31"/>
       <c r="B387" s="32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C387" s="47">
         <v>0</v>
@@ -10503,46 +10497,46 @@
         <v>58</v>
       </c>
     </row>
-    <row r="388" spans="1:7" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="31" t="s">
+    <row r="388" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="31"/>
+      <c r="B388" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="C388" s="47">
+        <v>0</v>
+      </c>
+      <c r="D388" s="47">
+        <v>0</v>
+      </c>
+      <c r="E388" s="14">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="F388" s="76" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G388" s="70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="B388" s="32" t="s">
+      <c r="B389" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="C388" s="57"/>
-      <c r="D388" s="47"/>
-      <c r="E388" s="14"/>
-      <c r="F388" s="76"/>
-      <c r="G388" s="72"/>
-    </row>
-    <row r="389" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="31"/>
-      <c r="B389" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="C389" s="47">
-        <v>0</v>
-      </c>
-      <c r="D389" s="47">
-        <v>0</v>
-      </c>
-      <c r="E389" s="14">
-        <f t="shared" ref="E389:E401" si="39">D389-C389</f>
-        <v>0</v>
-      </c>
-      <c r="F389" s="76" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G389" s="70" t="s">
-        <v>44</v>
-      </c>
+      <c r="C389" s="57"/>
+      <c r="D389" s="47"/>
+      <c r="E389" s="14"/>
+      <c r="F389" s="76"/>
+      <c r="G389" s="72"/>
     </row>
     <row r="390" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="31"/>
       <c r="B390" s="31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C390" s="47">
         <v>0</v>
@@ -10551,7 +10545,7 @@
         <v>0</v>
       </c>
       <c r="E390" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="E390:E402" si="39">D390-C390</f>
         <v>0</v>
       </c>
       <c r="F390" s="76" t="e">
@@ -10565,7 +10559,7 @@
     <row r="391" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="31"/>
       <c r="B391" s="31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C391" s="47">
         <v>0</v>
@@ -10588,7 +10582,7 @@
     <row r="392" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A392" s="31"/>
       <c r="B392" s="31" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C392" s="47">
         <v>0</v>
@@ -10605,13 +10599,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G392" s="70" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="393" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" s="31"/>
       <c r="B393" s="31" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="C393" s="47">
         <v>0</v>
@@ -10628,13 +10622,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G393" s="70" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="394" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="31"/>
       <c r="B394" s="31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C394" s="47">
         <v>0</v>
@@ -10657,7 +10651,7 @@
     <row r="395" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="31"/>
       <c r="B395" s="31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C395" s="47">
         <v>0</v>
@@ -10680,7 +10674,7 @@
     <row r="396" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A396" s="31"/>
       <c r="B396" s="31" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="C396" s="47">
         <v>0</v>
@@ -10697,13 +10691,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G396" s="70" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="397" spans="1:7" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A397" s="31"/>
-      <c r="B397" s="32" t="s">
-        <v>254</v>
+      <c r="B397" s="31" t="s">
+        <v>239</v>
       </c>
       <c r="C397" s="47">
         <v>0</v>
@@ -10719,14 +10713,14 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G397" s="73" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="398" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G397" s="70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="31"/>
       <c r="B398" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C398" s="47">
         <v>0</v>
@@ -10742,14 +10736,14 @@
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G398" s="70" t="s">
-        <v>44</v>
+      <c r="G398" s="73" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="399" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A399" s="31"/>
       <c r="B399" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C399" s="47">
         <v>0</v>
@@ -10762,17 +10756,17 @@
         <v>0</v>
       </c>
       <c r="F399" s="76" t="e">
-        <f t="shared" ref="F399:F407" si="40">SUM(D399-C399)/C399*100</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G399" s="70" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="400" spans="1:7" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A400" s="31"/>
       <c r="B400" s="32" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="C400" s="47">
         <v>0</v>
@@ -10785,17 +10779,17 @@
         <v>0</v>
       </c>
       <c r="F400" s="76" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="F400:F408" si="40">SUM(D400-C400)/C400*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G400" s="70" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="31"/>
       <c r="B401" s="32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C401" s="47">
         <v>0</v>
@@ -10815,46 +10809,46 @@
         <v>58</v>
       </c>
     </row>
-    <row r="402" spans="1:7" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="31" t="s">
+    <row r="402" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="31"/>
+      <c r="B402" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="C402" s="47">
+        <v>0</v>
+      </c>
+      <c r="D402" s="47">
+        <v>0</v>
+      </c>
+      <c r="E402" s="14">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="F402" s="76" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G402" s="70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="B402" s="32" t="s">
+      <c r="B403" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="C402" s="57"/>
-      <c r="D402" s="60"/>
-      <c r="E402" s="14"/>
-      <c r="F402" s="76"/>
-      <c r="G402" s="72"/>
-    </row>
-    <row r="403" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="31"/>
-      <c r="B403" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="C403" s="47">
-        <v>0</v>
-      </c>
-      <c r="D403" s="47">
-        <v>0</v>
-      </c>
-      <c r="E403" s="14">
-        <f t="shared" ref="E403:E407" si="41">D403-C403</f>
-        <v>0</v>
-      </c>
-      <c r="F403" s="76" t="e">
-        <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G403" s="70" t="s">
-        <v>58</v>
-      </c>
+      <c r="C403" s="57"/>
+      <c r="D403" s="60"/>
+      <c r="E403" s="14"/>
+      <c r="F403" s="76"/>
+      <c r="G403" s="72"/>
     </row>
     <row r="404" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" s="31"/>
       <c r="B404" s="31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C404" s="47">
         <v>0</v>
@@ -10863,7 +10857,7 @@
         <v>0</v>
       </c>
       <c r="E404" s="14">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="E404:E408" si="41">D404-C404</f>
         <v>0</v>
       </c>
       <c r="F404" s="76" t="e">
@@ -10874,10 +10868,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="405" spans="1:7" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A405" s="31"/>
-      <c r="B405" s="32" t="s">
-        <v>265</v>
+      <c r="B405" s="31" t="s">
+        <v>259</v>
       </c>
       <c r="C405" s="47">
         <v>0</v>
@@ -10894,13 +10888,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G405" s="70" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="406" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="31"/>
       <c r="B406" s="32" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="C406" s="47">
         <v>0</v>
@@ -10917,13 +10911,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G406" s="70" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="407" spans="1:7" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A407" s="31"/>
       <c r="B407" s="32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C407" s="47">
         <v>0</v>
@@ -10943,59 +10937,59 @@
         <v>58</v>
       </c>
     </row>
-    <row r="408" spans="1:7" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="27" t="s">
+    <row r="408" spans="1:7" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="31"/>
+      <c r="B408" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="C408" s="47">
+        <v>0</v>
+      </c>
+      <c r="D408" s="47">
+        <v>0</v>
+      </c>
+      <c r="E408" s="14">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="F408" s="76" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G408" s="70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="B408" s="33" t="s">
+      <c r="B409" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="C408" s="54"/>
-      <c r="D408" s="60"/>
-      <c r="E408" s="14"/>
-      <c r="F408" s="76"/>
-      <c r="G408" s="62"/>
-    </row>
-    <row r="409" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A409" s="29">
-        <v>34</v>
-      </c>
-      <c r="B409" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="C409" s="55"/>
+      <c r="C409" s="54"/>
       <c r="D409" s="60"/>
       <c r="E409" s="14"/>
       <c r="F409" s="76"/>
       <c r="G409" s="62"/>
     </row>
     <row r="410" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A410" s="31"/>
-      <c r="B410" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="C410" s="47">
-        <v>0</v>
-      </c>
-      <c r="D410" s="47">
-        <v>0</v>
-      </c>
-      <c r="E410" s="14">
-        <f t="shared" ref="E410:E414" si="42">D410-C410</f>
-        <v>0</v>
-      </c>
-      <c r="F410" s="76" t="e">
-        <f t="shared" ref="F410:F412" si="43">SUM(D410-C410)/C410*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G410" s="62" t="s">
-        <v>107</v>
-      </c>
+      <c r="A410" s="29">
+        <v>34</v>
+      </c>
+      <c r="B410" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C410" s="55"/>
+      <c r="D410" s="60"/>
+      <c r="E410" s="14"/>
+      <c r="F410" s="76"/>
+      <c r="G410" s="62"/>
     </row>
     <row r="411" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A411" s="31"/>
       <c r="B411" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C411" s="47">
         <v>0</v>
@@ -11004,11 +10998,11 @@
         <v>0</v>
       </c>
       <c r="E411" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="E411:E415" si="42">D411-C411</f>
         <v>0</v>
       </c>
       <c r="F411" s="76" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="F411:F413" si="43">SUM(D411-C411)/C411*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G411" s="62" t="s">
@@ -11018,7 +11012,7 @@
     <row r="412" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A412" s="31"/>
       <c r="B412" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C412" s="47">
         <v>0</v>
@@ -11041,7 +11035,7 @@
     <row r="413" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A413" s="31"/>
       <c r="B413" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C413" s="47">
         <v>0</v>
@@ -11054,78 +11048,78 @@
         <v>0</v>
       </c>
       <c r="F413" s="76" t="e">
-        <f t="shared" ref="F413" si="44">SUM(D413-C413)/C413*100</f>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G413" s="62" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="414" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="36"/>
-      <c r="B414" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C414" s="58">
-        <f>SUM(C410:C413)</f>
-        <v>0</v>
-      </c>
-      <c r="D414" s="61">
-        <f>SUM(D410:D413)</f>
+    <row r="414" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A414" s="31"/>
+      <c r="B414" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="C414" s="47">
+        <v>0</v>
+      </c>
+      <c r="D414" s="47">
         <v>0</v>
       </c>
       <c r="E414" s="14">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="F414" s="77" t="e">
-        <f>SUM(D414-C414)/C414*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G414" s="74" t="s">
+      <c r="F414" s="76" t="e">
+        <f t="shared" ref="F414" si="44">SUM(D414-C414)/C414*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G414" s="62" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="415" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="75" t="s">
+      <c r="A415" s="36"/>
+      <c r="B415" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C415" s="58">
+        <f>SUM(C411:C414)</f>
+        <v>0</v>
+      </c>
+      <c r="D415" s="61">
+        <f>SUM(D411:D414)</f>
+        <v>0</v>
+      </c>
+      <c r="E415" s="14">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="F415" s="77" t="e">
+        <f>SUM(D415-C415)/C415*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G415" s="74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="75" t="s">
         <v>291</v>
       </c>
-      <c r="B415" s="24" t="s">
+      <c r="B416" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="C415" s="80"/>
-      <c r="D415" s="61"/>
-      <c r="E415" s="14"/>
-      <c r="F415" s="77"/>
-      <c r="G415" s="74"/>
-    </row>
-    <row r="416" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="36"/>
-      <c r="B416" s="25" t="s">
-        <v>293</v>
-      </c>
-      <c r="C416" s="80">
-        <v>0</v>
-      </c>
-      <c r="D416" s="61">
-        <v>0</v>
-      </c>
-      <c r="E416" s="14">
-        <f>D416-C416</f>
-        <v>0</v>
-      </c>
-      <c r="F416" s="77" t="e">
-        <f t="shared" ref="F416:F421" si="45">SUM(D416-C416)/C416*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G416" s="74" t="s">
-        <v>44</v>
-      </c>
+      <c r="C416" s="80"/>
+      <c r="D416" s="61"/>
+      <c r="E416" s="14"/>
+      <c r="F416" s="77"/>
+      <c r="G416" s="74"/>
     </row>
     <row r="417" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A417" s="36"/>
       <c r="B417" s="25" t="s">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="C417" s="80">
         <v>0</v>
@@ -11134,11 +11128,11 @@
         <v>0</v>
       </c>
       <c r="E417" s="14">
-        <f t="shared" ref="E417:E421" si="46">D417-C417</f>
+        <f>D417-C417</f>
         <v>0</v>
       </c>
       <c r="F417" s="77" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="F417:F422" si="45">SUM(D417-C417)/C417*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G417" s="74" t="s">
@@ -11148,7 +11142,7 @@
     <row r="418" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A418" s="36"/>
       <c r="B418" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C418" s="80">
         <v>0</v>
@@ -11157,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="E418" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="E418:E422" si="46">D418-C418</f>
         <v>0</v>
       </c>
       <c r="F418" s="77" t="e">
@@ -11171,7 +11165,7 @@
     <row r="419" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A419" s="36"/>
       <c r="B419" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C419" s="80">
         <v>0</v>
@@ -11194,7 +11188,7 @@
     <row r="420" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A420" s="36"/>
       <c r="B420" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C420" s="80">
         <v>0</v>
@@ -11214,17 +11208,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A421" s="78"/>
-      <c r="B421" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="C421" s="79">
-        <f>SUM(C416:C420)</f>
-        <v>0</v>
-      </c>
-      <c r="D421" s="79">
-        <f>SUM(D416:D420)</f>
+    <row r="421" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="36"/>
+      <c r="B421" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C421" s="80">
+        <v>0</v>
+      </c>
+      <c r="D421" s="61">
         <v>0</v>
       </c>
       <c r="E421" s="14">
@@ -11240,45 +11232,47 @@
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A422" s="82" t="s">
+      <c r="A422" s="78"/>
+      <c r="B422" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C422" s="79">
+        <f>SUM(C417:C421)</f>
+        <v>0</v>
+      </c>
+      <c r="D422" s="79">
+        <f>SUM(D417:D421)</f>
+        <v>0</v>
+      </c>
+      <c r="E422" s="14">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="F422" s="77" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G422" s="74" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A423" s="82" t="s">
         <v>297</v>
       </c>
-      <c r="B422" s="24" t="s">
+      <c r="B423" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="C422" s="80"/>
-      <c r="D422" s="61"/>
-      <c r="E422" s="14"/>
-      <c r="F422" s="77"/>
-      <c r="G422" s="74"/>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A423" s="36"/>
-      <c r="B423" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="C423" s="80">
-        <v>0</v>
-      </c>
-      <c r="D423" s="61">
-        <v>0</v>
-      </c>
-      <c r="E423" s="14">
-        <f>D423-C423</f>
-        <v>0</v>
-      </c>
-      <c r="F423" s="77" t="e">
-        <f t="shared" ref="F423:F425" si="47">SUM(D423-C423)/C423*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G423" s="70" t="s">
-        <v>58</v>
-      </c>
+      <c r="C423" s="80"/>
+      <c r="D423" s="61"/>
+      <c r="E423" s="14"/>
+      <c r="F423" s="77"/>
+      <c r="G423" s="74"/>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="36"/>
       <c r="B424" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C424" s="80">
         <v>0</v>
@@ -11287,11 +11281,11 @@
         <v>0</v>
       </c>
       <c r="E424" s="14">
-        <f t="shared" ref="E424:E425" si="48">D424-C424</f>
+        <f>D424-C424</f>
         <v>0</v>
       </c>
       <c r="F424" s="77" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="F424:F426" si="47">SUM(D424-C424)/C424*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G424" s="70" t="s">
@@ -11299,20 +11293,18 @@
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A425" s="78"/>
-      <c r="B425" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="C425" s="79">
-        <f>SUM(C423:C424)</f>
-        <v>0</v>
-      </c>
-      <c r="D425" s="79">
-        <f>SUM(D423:D424)</f>
+      <c r="A425" s="36"/>
+      <c r="B425" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="C425" s="80">
+        <v>0</v>
+      </c>
+      <c r="D425" s="61">
         <v>0</v>
       </c>
       <c r="E425" s="14">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="E425:E426" si="48">D425-C425</f>
         <v>0</v>
       </c>
       <c r="F425" s="77" t="e">
@@ -11323,14 +11315,39 @@
         <v>58</v>
       </c>
     </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A426" s="78"/>
+      <c r="B426" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C426" s="79">
+        <f>SUM(C424:C425)</f>
+        <v>0</v>
+      </c>
+      <c r="D426" s="79">
+        <f>SUM(D424:D425)</f>
+        <v>0</v>
+      </c>
+      <c r="E426" s="14">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="F426" s="77" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G426" s="70" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/public/template/excel/format_laporan_operasi_2021_preview_new.xlsx
+++ b/public/template/excel/format_laporan_operasi_2021_preview_new.xlsx
@@ -968,7 +968,7 @@
     <t>KORPS LALU LINTAS</t>
   </si>
   <si>
-    <t>Laphar H2 Giat Operasi Patuh</t>
+    <t>NAMA LAPORAN</t>
   </si>
 </sst>
 </file>

--- a/public/template/excel/format_laporan_operasi_2021_preview_new.xlsx
+++ b/public/template/excel/format_laporan_operasi_2021_preview_new.xlsx
@@ -1312,7 +1312,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1538,6 +1538,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1864,7 +1867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H426"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A393" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1931,7 +1934,7 @@
       <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="87" t="s">
         <v>301</v>
       </c>
       <c r="C6" s="45"/>
@@ -1962,36 +1965,36 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="88" t="s">
+      <c r="A10" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="D10" s="90"/>
-      <c r="E10" s="91" t="s">
+      <c r="D10" s="91"/>
+      <c r="E10" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="92"/>
-      <c r="G10" s="88" t="s">
+      <c r="F10" s="93"/>
+      <c r="G10" s="89" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="88"/>
-      <c r="B11" s="88"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="89"/>
       <c r="C11" s="41">
         <v>2019</v>
       </c>
@@ -2004,7 +2007,7 @@
       <c r="F11" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="88"/>
+      <c r="G11" s="89"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10">

--- a/public/template/excel/format_laporan_operasi_2021_preview_new.xlsx
+++ b/public/template/excel/format_laporan_operasi_2021_preview_new.xlsx
@@ -1312,7 +1312,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1557,6 +1557,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1865,10 +1868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H426"/>
+  <dimension ref="A1:H435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A393" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A411" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E435" sqref="E435:F435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11343,8 +11346,28 @@
         <v>58</v>
       </c>
     </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E428" s="94"/>
+      <c r="F428" s="94"/>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E429" s="94"/>
+      <c r="F429" s="94"/>
+    </row>
+    <row r="434" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E434" s="94"/>
+      <c r="F434" s="94"/>
+    </row>
+    <row r="435" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E435" s="94"/>
+      <c r="F435" s="94"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="E428:F428"/>
+    <mergeCell ref="E429:F429"/>
+    <mergeCell ref="E434:F434"/>
+    <mergeCell ref="E435:F435"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>

--- a/public/template/excel/format_laporan_operasi_2021_preview_new.xlsx
+++ b/public/template/excel/format_laporan_operasi_2021_preview_new.xlsx
@@ -978,7 +978,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1037,14 +1037,6 @@
       <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1307,12 +1299,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1345,7 +1336,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1387,10 +1378,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1425,9 +1416,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1541,6 +1529,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1559,12 +1550,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
@@ -1870,24 +1857,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E435" sqref="E435:F435"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="53.44140625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.77734375" style="59" customWidth="1"/>
+    <col min="3" max="4" width="11.77734375" style="58" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" style="59" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" style="58" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="58" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="84"/>
-      <c r="B1" s="84"/>
+      <c r="A1" s="83"/>
+      <c r="B1" s="83"/>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
       <c r="E1" s="8"/>
@@ -1895,7 +1882,7 @@
       <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="84"/>
+      <c r="A2" s="83"/>
       <c r="B2" s="46" t="s">
         <v>298</v>
       </c>
@@ -1918,7 +1905,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="82" t="s">
         <v>300</v>
       </c>
       <c r="C4" s="44"/>
@@ -1929,7 +1916,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="85"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
       <c r="E5" s="8"/>
@@ -1937,7 +1924,7 @@
       <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>301</v>
       </c>
       <c r="C6" s="45"/>
@@ -1947,7 +1934,7 @@
       <c r="G6" s="45"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="85" t="s">
         <v>289</v>
       </c>
       <c r="C7" s="40"/>
@@ -1957,7 +1944,7 @@
       <c r="G7" s="40"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="83" t="s">
         <v>290</v>
       </c>
       <c r="C8" s="46"/>
@@ -2080,11 +2067,11 @@
         <f>D15-C15</f>
         <v>0</v>
       </c>
-      <c r="F15" s="76" t="e">
+      <c r="F15" s="75" t="e">
         <f>SUM(D15-C15)/C15*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="62" t="s">
+      <c r="G15" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2105,11 +2092,11 @@
         <f t="shared" ref="E16:E17" si="0">D16-C16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="76" t="e">
+      <c r="F16" s="75" t="e">
         <f t="shared" ref="F16:F79" si="1">SUM(D16-C16)/C16*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="62" t="s">
+      <c r="G16" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2132,11 +2119,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="76" t="e">
+      <c r="F17" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="63" t="s">
+      <c r="G17" s="62" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2148,10 +2135,10 @@
         <v>12</v>
       </c>
       <c r="C18" s="11"/>
-      <c r="D18" s="60"/>
+      <c r="D18" s="59"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="63" t="s">
+      <c r="F18" s="75"/>
+      <c r="G18" s="62" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2163,10 +2150,10 @@
         <v>13</v>
       </c>
       <c r="C19" s="11"/>
-      <c r="D19" s="60"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="62" t="s">
+      <c r="F19" s="75"/>
+      <c r="G19" s="61" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2187,11 +2174,11 @@
         <f t="shared" ref="E20:E36" si="2">D20-C20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="76" t="e">
+      <c r="F20" s="75" t="e">
         <f>SUM(D20-C20)/C20*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="62" t="s">
+      <c r="G20" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2212,11 +2199,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F21" s="76" t="e">
+      <c r="F21" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="62" t="s">
+      <c r="G21" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2235,11 +2222,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F22" s="76" t="e">
+      <c r="F22" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="62" t="s">
+      <c r="G22" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2260,11 +2247,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F23" s="76" t="e">
+      <c r="F23" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="62" t="s">
+      <c r="G23" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2285,11 +2272,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F24" s="76" t="e">
+      <c r="F24" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="62" t="s">
+      <c r="G24" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2310,11 +2297,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F25" s="76" t="e">
+      <c r="F25" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="62" t="s">
+      <c r="G25" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2333,11 +2320,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F26" s="76" t="e">
+      <c r="F26" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="62" t="s">
+      <c r="G26" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2356,11 +2343,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F27" s="76" t="e">
+      <c r="F27" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="62" t="s">
+      <c r="G27" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2379,11 +2366,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F28" s="76" t="e">
+      <c r="F28" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="62" t="s">
+      <c r="G28" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2402,11 +2389,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F29" s="76" t="e">
+      <c r="F29" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="62" t="s">
+      <c r="G29" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2425,11 +2412,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F30" s="76" t="e">
+      <c r="F30" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="62" t="s">
+      <c r="G30" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2448,11 +2435,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F31" s="76" t="e">
+      <c r="F31" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="62" t="s">
+      <c r="G31" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2471,11 +2458,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F32" s="76" t="e">
+      <c r="F32" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="62" t="s">
+      <c r="G32" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2494,11 +2481,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F33" s="76" t="e">
+      <c r="F33" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G33" s="62" t="s">
+      <c r="G33" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2517,11 +2504,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F34" s="76" t="e">
+      <c r="F34" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G34" s="62" t="s">
+      <c r="G34" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2542,11 +2529,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F35" s="76" t="e">
+      <c r="F35" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G35" s="62" t="s">
+      <c r="G35" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2567,11 +2554,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F36" s="76" t="e">
+      <c r="F36" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G36" s="62" t="s">
+      <c r="G36" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2594,11 +2581,11 @@
         <f>D37-C37</f>
         <v>0</v>
       </c>
-      <c r="F37" s="76" t="e">
+      <c r="F37" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G37" s="63" t="s">
+      <c r="G37" s="62" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2610,10 +2597,10 @@
         <v>32</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="60"/>
+      <c r="D38" s="59"/>
       <c r="E38" s="14"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="63"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="62"/>
     </row>
     <row r="39" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
@@ -2630,11 +2617,11 @@
         <f t="shared" ref="E39:E102" si="3">D39-C39</f>
         <v>0</v>
       </c>
-      <c r="F39" s="76" t="e">
+      <c r="F39" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="62" t="s">
+      <c r="G39" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2653,11 +2640,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F40" s="76" t="e">
+      <c r="F40" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G40" s="62" t="s">
+      <c r="G40" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2676,11 +2663,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F41" s="76" t="e">
+      <c r="F41" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="62" t="s">
+      <c r="G41" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2699,11 +2686,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F42" s="76" t="e">
+      <c r="F42" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G42" s="62" t="s">
+      <c r="G42" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2722,11 +2709,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F43" s="76" t="e">
+      <c r="F43" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G43" s="62" t="s">
+      <c r="G43" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2745,11 +2732,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F44" s="76" t="e">
+      <c r="F44" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G44" s="62" t="s">
+      <c r="G44" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2768,11 +2755,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F45" s="76" t="e">
+      <c r="F45" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G45" s="62" t="s">
+      <c r="G45" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2791,11 +2778,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F46" s="76" t="e">
+      <c r="F46" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G46" s="62" t="s">
+      <c r="G46" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2814,11 +2801,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F47" s="76" t="e">
+      <c r="F47" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G47" s="62" t="s">
+      <c r="G47" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2837,11 +2824,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F48" s="76" t="e">
+      <c r="F48" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G48" s="62" t="s">
+      <c r="G48" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2860,11 +2847,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F49" s="76" t="e">
+      <c r="F49" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G49" s="62" t="s">
+      <c r="G49" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2885,11 +2872,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F50" s="76" t="e">
+      <c r="F50" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G50" s="62" t="s">
+      <c r="G50" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2910,11 +2897,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F51" s="76" t="e">
+      <c r="F51" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G51" s="62" t="s">
+      <c r="G51" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2935,11 +2922,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F52" s="76" t="e">
+      <c r="F52" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G52" s="62" t="s">
+      <c r="G52" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2960,11 +2947,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F53" s="76" t="e">
+      <c r="F53" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G53" s="62" t="s">
+      <c r="G53" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2985,11 +2972,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F54" s="76" t="e">
+      <c r="F54" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G54" s="62" t="s">
+      <c r="G54" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3008,11 +2995,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F55" s="76" t="e">
+      <c r="F55" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G55" s="62" t="s">
+      <c r="G55" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3035,11 +3022,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F56" s="76" t="e">
+      <c r="F56" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G56" s="63" t="s">
+      <c r="G56" s="62" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3049,10 +3036,10 @@
         <v>40</v>
       </c>
       <c r="C57" s="11"/>
-      <c r="D57" s="60"/>
+      <c r="D57" s="59"/>
       <c r="E57" s="14"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="63"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="62"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
@@ -3069,11 +3056,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F58" s="76" t="e">
+      <c r="F58" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G58" s="62" t="s">
+      <c r="G58" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3096,11 +3083,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F59" s="76" t="e">
+      <c r="F59" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G59" s="63" t="s">
+      <c r="G59" s="62" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3112,10 +3099,10 @@
         <v>170</v>
       </c>
       <c r="C60" s="47"/>
-      <c r="D60" s="60"/>
+      <c r="D60" s="59"/>
       <c r="E60" s="14"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="62"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="61"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
@@ -3132,11 +3119,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F61" s="76" t="e">
+      <c r="F61" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G61" s="62" t="s">
+      <c r="G61" s="61" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3155,11 +3142,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F62" s="76" t="e">
+      <c r="F62" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G62" s="62" t="s">
+      <c r="G62" s="61" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3178,11 +3165,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F63" s="76" t="e">
+      <c r="F63" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G63" s="62" t="s">
+      <c r="G63" s="61" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3203,11 +3190,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F64" s="76" t="e">
+      <c r="F64" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G64" s="63" t="s">
+      <c r="G64" s="62" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3219,10 +3206,10 @@
         <v>42</v>
       </c>
       <c r="C65" s="11"/>
-      <c r="D65" s="60"/>
+      <c r="D65" s="59"/>
       <c r="E65" s="14"/>
-      <c r="F65" s="76"/>
-      <c r="G65" s="63"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="62"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
@@ -3241,11 +3228,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F66" s="76" t="e">
+      <c r="F66" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G66" s="62" t="s">
+      <c r="G66" s="61" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3266,11 +3253,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F67" s="76" t="e">
+      <c r="F67" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G67" s="62" t="s">
+      <c r="G67" s="61" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3291,11 +3278,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F68" s="76" t="e">
+      <c r="F68" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G68" s="62" t="s">
+      <c r="G68" s="61" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3316,11 +3303,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F69" s="76" t="e">
+      <c r="F69" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G69" s="64" t="s">
+      <c r="G69" s="63" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3341,11 +3328,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F70" s="76" t="e">
+      <c r="F70" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G70" s="62" t="s">
+      <c r="G70" s="61" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3368,11 +3355,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F71" s="76" t="e">
+      <c r="F71" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G71" s="63" t="s">
+      <c r="G71" s="62" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3384,10 +3371,10 @@
         <v>269</v>
       </c>
       <c r="C72" s="11"/>
-      <c r="D72" s="60"/>
+      <c r="D72" s="59"/>
       <c r="E72" s="14"/>
-      <c r="F72" s="76"/>
-      <c r="G72" s="63"/>
+      <c r="F72" s="75"/>
+      <c r="G72" s="62"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
@@ -3406,11 +3393,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F73" s="76" t="e">
+      <c r="F73" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G73" s="62" t="s">
+      <c r="G73" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3431,11 +3418,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F74" s="76" t="e">
+      <c r="F74" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G74" s="62" t="s">
+      <c r="G74" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3456,11 +3443,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F75" s="76" t="e">
+      <c r="F75" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G75" s="62" t="s">
+      <c r="G75" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3481,11 +3468,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F76" s="76" t="e">
+      <c r="F76" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G76" s="62" t="s">
+      <c r="G76" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3506,11 +3493,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F77" s="76" t="e">
+      <c r="F77" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G77" s="62" t="s">
+      <c r="G77" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3531,11 +3518,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F78" s="76" t="e">
+      <c r="F78" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G78" s="62" t="s">
+      <c r="G78" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3556,11 +3543,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F79" s="76" t="e">
+      <c r="F79" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G79" s="62" t="s">
+      <c r="G79" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3583,11 +3570,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F80" s="76" t="e">
+      <c r="F80" s="75" t="e">
         <f t="shared" ref="F80:F143" si="4">SUM(D80-C80)/C80*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G80" s="63" t="s">
+      <c r="G80" s="62" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3599,10 +3586,10 @@
         <v>56</v>
       </c>
       <c r="C81" s="11"/>
-      <c r="D81" s="60"/>
+      <c r="D81" s="59"/>
       <c r="E81" s="14"/>
-      <c r="F81" s="76"/>
-      <c r="G81" s="63"/>
+      <c r="F81" s="75"/>
+      <c r="G81" s="62"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
@@ -3619,11 +3606,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F82" s="76" t="e">
+      <c r="F82" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G82" s="62" t="s">
+      <c r="G82" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3644,11 +3631,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F83" s="76" t="e">
+      <c r="F83" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G83" s="62" t="s">
+      <c r="G83" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3669,11 +3656,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F84" s="76" t="e">
+      <c r="F84" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G84" s="62" t="s">
+      <c r="G84" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3694,11 +3681,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F85" s="76" t="e">
+      <c r="F85" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G85" s="62" t="s">
+      <c r="G85" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3719,11 +3706,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F86" s="76" t="e">
+      <c r="F86" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G86" s="62" t="s">
+      <c r="G86" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3742,11 +3729,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F87" s="76" t="e">
+      <c r="F87" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G87" s="62" t="s">
+      <c r="G87" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3765,11 +3752,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F88" s="76" t="e">
+      <c r="F88" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G88" s="62" t="s">
+      <c r="G88" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3788,11 +3775,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F89" s="76" t="e">
+      <c r="F89" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G89" s="62" t="s">
+      <c r="G89" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3813,11 +3800,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F90" s="76" t="e">
+      <c r="F90" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G90" s="62" t="s">
+      <c r="G90" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3836,11 +3823,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F91" s="76" t="e">
+      <c r="F91" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G91" s="62" t="s">
+      <c r="G91" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3859,11 +3846,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F92" s="76" t="e">
+      <c r="F92" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G92" s="62" t="s">
+      <c r="G92" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3886,11 +3873,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F93" s="76" t="e">
+      <c r="F93" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G93" s="63" t="s">
+      <c r="G93" s="62" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3902,10 +3889,10 @@
         <v>69</v>
       </c>
       <c r="C94" s="11"/>
-      <c r="D94" s="60"/>
+      <c r="D94" s="59"/>
       <c r="E94" s="14"/>
-      <c r="F94" s="76"/>
-      <c r="G94" s="63"/>
+      <c r="F94" s="75"/>
+      <c r="G94" s="62"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
@@ -3924,11 +3911,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F95" s="76" t="e">
+      <c r="F95" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G95" s="62" t="s">
+      <c r="G95" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3949,11 +3936,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F96" s="76" t="e">
+      <c r="F96" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G96" s="62" t="s">
+      <c r="G96" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3974,11 +3961,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F97" s="76" t="e">
+      <c r="F97" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G97" s="62" t="s">
+      <c r="G97" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3999,11 +3986,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F98" s="76" t="e">
+      <c r="F98" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G98" s="62" t="s">
+      <c r="G98" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4024,11 +4011,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F99" s="76" t="e">
+      <c r="F99" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G99" s="62" t="s">
+      <c r="G99" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4049,11 +4036,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F100" s="76" t="e">
+      <c r="F100" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G100" s="62" t="s">
+      <c r="G100" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4072,11 +4059,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F101" s="76" t="e">
+      <c r="F101" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G101" s="62" t="s">
+      <c r="G101" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4097,11 +4084,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F102" s="76" t="e">
+      <c r="F102" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G102" s="62" t="s">
+      <c r="G102" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4122,11 +4109,11 @@
         <f t="shared" ref="E103:E105" si="5">D103-C103</f>
         <v>0</v>
       </c>
-      <c r="F103" s="76" t="e">
+      <c r="F103" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G103" s="62" t="s">
+      <c r="G103" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4147,11 +4134,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F104" s="76" t="e">
+      <c r="F104" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G104" s="62" t="s">
+      <c r="G104" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4174,11 +4161,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F105" s="76" t="e">
+      <c r="F105" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G105" s="63" t="s">
+      <c r="G105" s="62" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4190,10 +4177,10 @@
         <v>81</v>
       </c>
       <c r="C106" s="11"/>
-      <c r="D106" s="60"/>
+      <c r="D106" s="59"/>
       <c r="E106" s="14"/>
-      <c r="F106" s="76"/>
-      <c r="G106" s="63"/>
+      <c r="F106" s="75"/>
+      <c r="G106" s="62"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
@@ -4201,10 +4188,10 @@
         <v>121</v>
       </c>
       <c r="C107" s="11"/>
-      <c r="D107" s="60"/>
+      <c r="D107" s="59"/>
       <c r="E107" s="14"/>
-      <c r="F107" s="76"/>
-      <c r="G107" s="63"/>
+      <c r="F107" s="75"/>
+      <c r="G107" s="62"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
@@ -4221,11 +4208,11 @@
         <f t="shared" ref="E108:E113" si="6">D108-C108</f>
         <v>0</v>
       </c>
-      <c r="F108" s="76" t="e">
+      <c r="F108" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G108" s="62" t="s">
+      <c r="G108" s="61" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4244,11 +4231,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F109" s="76" t="e">
+      <c r="F109" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G109" s="62" t="s">
+      <c r="G109" s="61" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4267,11 +4254,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F110" s="76" t="e">
+      <c r="F110" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G110" s="62" t="s">
+      <c r="G110" s="61" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4290,11 +4277,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F111" s="76" t="e">
+      <c r="F111" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G111" s="62" t="s">
+      <c r="G111" s="61" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4313,11 +4300,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F112" s="76" t="e">
+      <c r="F112" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G112" s="62" t="s">
+      <c r="G112" s="61" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4331,17 +4318,18 @@
         <v>0</v>
       </c>
       <c r="D113" s="47">
+        <f ca="1">SUM(D108:D113)</f>
         <v>0</v>
       </c>
       <c r="E113" s="14">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="F113" s="76" t="e">
+      <c r="F113" s="75" t="e">
         <f t="shared" ca="1" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G113" s="63" t="s">
+      <c r="G113" s="62" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4351,10 +4339,10 @@
         <v>127</v>
       </c>
       <c r="C114" s="47"/>
-      <c r="D114" s="60"/>
+      <c r="D114" s="59"/>
       <c r="E114" s="14"/>
-      <c r="F114" s="76"/>
-      <c r="G114" s="63"/>
+      <c r="F114" s="75"/>
+      <c r="G114" s="62"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
@@ -4371,11 +4359,11 @@
         <f t="shared" ref="E115:E119" si="7">D115-C115</f>
         <v>0</v>
       </c>
-      <c r="F115" s="76" t="e">
+      <c r="F115" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G115" s="62" t="s">
+      <c r="G115" s="61" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4394,11 +4382,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F116" s="76" t="e">
+      <c r="F116" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G116" s="62" t="s">
+      <c r="G116" s="61" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4417,11 +4405,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F117" s="76" t="e">
+      <c r="F117" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G117" s="62" t="s">
+      <c r="G117" s="61" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4440,11 +4428,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F118" s="76" t="e">
+      <c r="F118" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G118" s="62" t="s">
+      <c r="G118" s="61" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4465,11 +4453,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F119" s="76" t="e">
+      <c r="F119" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G119" s="63" t="s">
+      <c r="G119" s="62" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4479,10 +4467,10 @@
         <v>128</v>
       </c>
       <c r="C120" s="11"/>
-      <c r="D120" s="60"/>
+      <c r="D120" s="59"/>
       <c r="E120" s="14"/>
-      <c r="F120" s="76"/>
-      <c r="G120" s="63"/>
+      <c r="F120" s="75"/>
+      <c r="G120" s="62"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
@@ -4499,11 +4487,11 @@
         <f t="shared" ref="E121:E125" si="8">D121-C121</f>
         <v>0</v>
       </c>
-      <c r="F121" s="76" t="e">
+      <c r="F121" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G121" s="62" t="s">
+      <c r="G121" s="61" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4522,11 +4510,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F122" s="76" t="e">
+      <c r="F122" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G122" s="62" t="s">
+      <c r="G122" s="61" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4545,11 +4533,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F123" s="76" t="e">
+      <c r="F123" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G123" s="62" t="s">
+      <c r="G123" s="61" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4568,11 +4556,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F124" s="76" t="e">
+      <c r="F124" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G124" s="62" t="s">
+      <c r="G124" s="61" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4593,11 +4581,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F125" s="76" t="e">
+      <c r="F125" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G125" s="63" t="s">
+      <c r="G125" s="62" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4609,10 +4597,10 @@
         <v>91</v>
       </c>
       <c r="C126" s="11"/>
-      <c r="D126" s="60"/>
+      <c r="D126" s="59"/>
       <c r="E126" s="14"/>
-      <c r="F126" s="76"/>
-      <c r="G126" s="63"/>
+      <c r="F126" s="75"/>
+      <c r="G126" s="62"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
@@ -4622,10 +4610,10 @@
         <v>92</v>
       </c>
       <c r="C127" s="11"/>
-      <c r="D127" s="60"/>
+      <c r="D127" s="59"/>
       <c r="E127" s="14"/>
-      <c r="F127" s="76"/>
-      <c r="G127" s="63"/>
+      <c r="F127" s="75"/>
+      <c r="G127" s="62"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
@@ -4644,11 +4632,11 @@
         <f t="shared" ref="E128:E132" si="9">D128-C128</f>
         <v>0</v>
       </c>
-      <c r="F128" s="76" t="e">
+      <c r="F128" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G128" s="62" t="s">
+      <c r="G128" s="61" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4669,11 +4657,11 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F129" s="76" t="e">
+      <c r="F129" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G129" s="62" t="s">
+      <c r="G129" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4694,11 +4682,11 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F130" s="76" t="e">
+      <c r="F130" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G130" s="62" t="s">
+      <c r="G130" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4719,11 +4707,11 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F131" s="76" t="e">
+      <c r="F131" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G131" s="62" t="s">
+      <c r="G131" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4734,21 +4722,21 @@
       <c r="B132" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C132" s="48">
-        <v>100000000</v>
-      </c>
-      <c r="D132" s="48">
-        <v>100000000</v>
+      <c r="C132" s="47">
+        <v>0</v>
+      </c>
+      <c r="D132" s="47">
+        <v>0</v>
       </c>
       <c r="E132" s="14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F132" s="76">
+      <c r="F132" s="75" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G132" s="62" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G132" s="61" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4760,10 +4748,10 @@
         <v>170</v>
       </c>
       <c r="C133" s="11"/>
-      <c r="D133" s="60"/>
+      <c r="D133" s="59"/>
       <c r="E133" s="14"/>
-      <c r="F133" s="76"/>
-      <c r="G133" s="62"/>
+      <c r="F133" s="75"/>
+      <c r="G133" s="61"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="13"/>
@@ -4780,11 +4768,11 @@
         <f t="shared" ref="E134:E137" si="10">D134-C134</f>
         <v>0</v>
       </c>
-      <c r="F134" s="76" t="e">
+      <c r="F134" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G134" s="62" t="s">
+      <c r="G134" s="61" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4803,11 +4791,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F135" s="76" t="e">
+      <c r="F135" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G135" s="62" t="s">
+      <c r="G135" s="61" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4826,11 +4814,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F136" s="76" t="e">
+      <c r="F136" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G136" s="62" t="s">
+      <c r="G136" s="61" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4851,11 +4839,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F137" s="76" t="e">
+      <c r="F137" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G137" s="63" t="s">
+      <c r="G137" s="62" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4866,11 +4854,11 @@
       <c r="B138" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C138" s="49"/>
-      <c r="D138" s="60"/>
+      <c r="C138" s="48"/>
+      <c r="D138" s="59"/>
       <c r="E138" s="14"/>
-      <c r="F138" s="76"/>
-      <c r="G138" s="49"/>
+      <c r="F138" s="75"/>
+      <c r="G138" s="48"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
@@ -4889,11 +4877,11 @@
         <f t="shared" ref="E139:E202" si="11">D139-C139</f>
         <v>0</v>
       </c>
-      <c r="F139" s="76" t="e">
+      <c r="F139" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G139" s="62" t="s">
+      <c r="G139" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4914,11 +4902,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F140" s="76" t="e">
+      <c r="F140" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G140" s="62" t="s">
+      <c r="G140" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4939,11 +4927,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F141" s="76" t="e">
+      <c r="F141" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G141" s="64" t="s">
+      <c r="G141" s="63" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4964,11 +4952,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F142" s="76" t="e">
+      <c r="F142" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G142" s="62" t="s">
+      <c r="G142" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4989,11 +4977,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F143" s="76" t="e">
+      <c r="F143" s="75" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G143" s="62" t="s">
+      <c r="G143" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5014,11 +5002,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F144" s="76" t="e">
+      <c r="F144" s="75" t="e">
         <f t="shared" ref="F144:F207" si="12">SUM(D144-C144)/C144*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G144" s="62" t="s">
+      <c r="G144" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5039,11 +5027,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F145" s="76" t="e">
+      <c r="F145" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G145" s="62" t="s">
+      <c r="G145" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5066,11 +5054,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F146" s="76" t="e">
+      <c r="F146" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G146" s="63" t="s">
+      <c r="G146" s="62" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5081,11 +5069,11 @@
       <c r="B147" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C147" s="49"/>
-      <c r="D147" s="60"/>
+      <c r="C147" s="48"/>
+      <c r="D147" s="59"/>
       <c r="E147" s="14"/>
-      <c r="F147" s="76"/>
-      <c r="G147" s="49"/>
+      <c r="F147" s="75"/>
+      <c r="G147" s="48"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
@@ -5102,11 +5090,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F148" s="76" t="e">
+      <c r="F148" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G148" s="62" t="s">
+      <c r="G148" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5125,11 +5113,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F149" s="76" t="e">
+      <c r="F149" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G149" s="62" t="s">
+      <c r="G149" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5148,11 +5136,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F150" s="76" t="e">
+      <c r="F150" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G150" s="62" t="s">
+      <c r="G150" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5171,11 +5159,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F151" s="76" t="e">
+      <c r="F151" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G151" s="62" t="s">
+      <c r="G151" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5194,11 +5182,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F152" s="76" t="e">
+      <c r="F152" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G152" s="62" t="s">
+      <c r="G152" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5217,11 +5205,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F153" s="76" t="e">
+      <c r="F153" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G153" s="62" t="s">
+      <c r="G153" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5242,11 +5230,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F154" s="76" t="e">
+      <c r="F154" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G154" s="62" t="s">
+      <c r="G154" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5267,11 +5255,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F155" s="76" t="e">
+      <c r="F155" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G155" s="62" t="s">
+      <c r="G155" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5292,11 +5280,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F156" s="76" t="e">
+      <c r="F156" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G156" s="62" t="s">
+      <c r="G156" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5317,11 +5305,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F157" s="76" t="e">
+      <c r="F157" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G157" s="62" t="s">
+      <c r="G157" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5342,11 +5330,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F158" s="76" t="e">
+      <c r="F158" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G158" s="65" t="s">
+      <c r="G158" s="64" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5369,11 +5357,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F159" s="76" t="e">
+      <c r="F159" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G159" s="63" t="s">
+      <c r="G159" s="62" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5384,11 +5372,11 @@
       <c r="B160" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C160" s="49"/>
-      <c r="D160" s="60"/>
+      <c r="C160" s="48"/>
+      <c r="D160" s="59"/>
       <c r="E160" s="14"/>
-      <c r="F160" s="76"/>
-      <c r="G160" s="49"/>
+      <c r="F160" s="75"/>
+      <c r="G160" s="48"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
@@ -5407,11 +5395,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F161" s="76" t="e">
+      <c r="F161" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G161" s="62" t="s">
+      <c r="G161" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5432,11 +5420,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F162" s="76" t="e">
+      <c r="F162" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G162" s="62" t="s">
+      <c r="G162" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5457,11 +5445,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F163" s="76" t="e">
+      <c r="F163" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G163" s="62" t="s">
+      <c r="G163" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5482,11 +5470,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F164" s="76" t="e">
+      <c r="F164" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G164" s="62" t="s">
+      <c r="G164" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5507,11 +5495,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F165" s="76" t="e">
+      <c r="F165" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G165" s="62" t="s">
+      <c r="G165" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5532,11 +5520,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F166" s="76" t="e">
+      <c r="F166" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G166" s="62" t="s">
+      <c r="G166" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5555,11 +5543,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F167" s="76" t="e">
+      <c r="F167" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G167" s="62" t="s">
+      <c r="G167" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5580,11 +5568,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F168" s="76" t="e">
+      <c r="F168" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G168" s="62" t="s">
+      <c r="G168" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5603,11 +5591,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F169" s="76" t="e">
+      <c r="F169" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G169" s="62" t="s">
+      <c r="G169" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5628,11 +5616,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F170" s="76" t="e">
+      <c r="F170" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G170" s="62" t="s">
+      <c r="G170" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5655,11 +5643,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F171" s="76" t="e">
+      <c r="F171" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G171" s="63" t="s">
+      <c r="G171" s="62" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5671,10 +5659,10 @@
         <v>103</v>
       </c>
       <c r="C172" s="11"/>
-      <c r="D172" s="60"/>
+      <c r="D172" s="59"/>
       <c r="E172" s="14"/>
-      <c r="F172" s="76"/>
-      <c r="G172" s="63"/>
+      <c r="F172" s="75"/>
+      <c r="G172" s="62"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="13" t="s">
@@ -5693,11 +5681,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F173" s="76" t="e">
+      <c r="F173" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G173" s="62" t="s">
+      <c r="G173" s="61" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5718,11 +5706,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F174" s="76" t="e">
+      <c r="F174" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G174" s="62" t="s">
+      <c r="G174" s="61" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5743,11 +5731,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F175" s="76" t="e">
+      <c r="F175" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G175" s="62" t="s">
+      <c r="G175" s="61" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5768,11 +5756,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F176" s="76" t="e">
+      <c r="F176" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G176" s="62" t="s">
+      <c r="G176" s="61" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5793,11 +5781,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F177" s="76" t="e">
+      <c r="F177" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G177" s="62" t="s">
+      <c r="G177" s="61" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5818,11 +5806,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F178" s="76" t="e">
+      <c r="F178" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G178" s="62" t="s">
+      <c r="G178" s="61" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5845,11 +5833,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F179" s="76" t="e">
+      <c r="F179" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G179" s="63" t="s">
+      <c r="G179" s="62" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5861,10 +5849,10 @@
         <v>105</v>
       </c>
       <c r="C180" s="11"/>
-      <c r="D180" s="60"/>
+      <c r="D180" s="59"/>
       <c r="E180" s="14"/>
-      <c r="F180" s="76"/>
-      <c r="G180" s="63"/>
+      <c r="F180" s="75"/>
+      <c r="G180" s="62"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="s">
@@ -5883,11 +5871,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F181" s="76" t="e">
+      <c r="F181" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G181" s="62" t="s">
+      <c r="G181" s="61" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5908,11 +5896,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F182" s="76" t="e">
+      <c r="F182" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G182" s="62" t="s">
+      <c r="G182" s="61" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5933,11 +5921,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F183" s="76" t="e">
+      <c r="F183" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G183" s="62" t="s">
+      <c r="G183" s="61" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5956,11 +5944,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F184" s="76" t="e">
+      <c r="F184" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G184" s="62" t="s">
+      <c r="G184" s="61" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5981,11 +5969,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F185" s="76" t="e">
+      <c r="F185" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G185" s="62" t="s">
+      <c r="G185" s="61" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6006,11 +5994,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F186" s="76" t="e">
+      <c r="F186" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G186" s="62" t="s">
+      <c r="G186" s="61" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6031,11 +6019,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F187" s="76" t="e">
+      <c r="F187" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G187" s="62" t="s">
+      <c r="G187" s="61" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6056,11 +6044,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F188" s="76" t="e">
+      <c r="F188" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G188" s="65" t="s">
+      <c r="G188" s="64" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6079,11 +6067,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F189" s="76" t="e">
+      <c r="F189" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G189" s="62" t="s">
+      <c r="G189" s="61" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6104,11 +6092,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F190" s="76" t="e">
+      <c r="F190" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G190" s="62" t="s">
+      <c r="G190" s="61" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6131,11 +6119,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F191" s="76" t="e">
+      <c r="F191" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G191" s="63" t="s">
+      <c r="G191" s="62" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6147,10 +6135,10 @@
         <v>267</v>
       </c>
       <c r="C192" s="11"/>
-      <c r="D192" s="60"/>
+      <c r="D192" s="59"/>
       <c r="E192" s="14"/>
-      <c r="F192" s="76"/>
-      <c r="G192" s="63"/>
+      <c r="F192" s="75"/>
+      <c r="G192" s="62"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="13" t="s">
@@ -6169,11 +6157,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F193" s="76" t="e">
+      <c r="F193" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G193" s="62" t="s">
+      <c r="G193" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6194,11 +6182,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F194" s="76" t="e">
+      <c r="F194" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G194" s="62" t="s">
+      <c r="G194" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6219,11 +6207,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F195" s="76" t="e">
+      <c r="F195" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G195" s="62" t="s">
+      <c r="G195" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6244,11 +6232,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F196" s="76" t="e">
+      <c r="F196" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G196" s="62" t="s">
+      <c r="G196" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6269,11 +6257,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F197" s="76" t="e">
+      <c r="F197" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G197" s="62" t="s">
+      <c r="G197" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6294,11 +6282,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F198" s="76" t="e">
+      <c r="F198" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G198" s="62" t="s">
+      <c r="G198" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6319,11 +6307,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F199" s="76" t="e">
+      <c r="F199" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G199" s="62" t="s">
+      <c r="G199" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6346,11 +6334,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F200" s="76" t="e">
+      <c r="F200" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G200" s="63" t="s">
+      <c r="G200" s="62" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6362,10 +6350,10 @@
         <v>117</v>
       </c>
       <c r="C201" s="11"/>
-      <c r="D201" s="60"/>
+      <c r="D201" s="59"/>
       <c r="E201" s="14"/>
-      <c r="F201" s="76"/>
-      <c r="G201" s="63"/>
+      <c r="F201" s="75"/>
+      <c r="G201" s="62"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
@@ -6382,11 +6370,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F202" s="76" t="e">
+      <c r="F202" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G202" s="62" t="s">
+      <c r="G202" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6405,11 +6393,11 @@
         <f t="shared" ref="E203:E213" si="13">D203-C203</f>
         <v>0</v>
       </c>
-      <c r="F203" s="76" t="e">
+      <c r="F203" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G203" s="62" t="s">
+      <c r="G203" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6428,11 +6416,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F204" s="76" t="e">
+      <c r="F204" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G204" s="62" t="s">
+      <c r="G204" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6451,11 +6439,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F205" s="76" t="e">
+      <c r="F205" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G205" s="62" t="s">
+      <c r="G205" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6474,11 +6462,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F206" s="76" t="e">
+      <c r="F206" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G206" s="62" t="s">
+      <c r="G206" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6497,11 +6485,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F207" s="76" t="e">
+      <c r="F207" s="75" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G207" s="62" t="s">
+      <c r="G207" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6520,11 +6508,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F208" s="76" t="e">
+      <c r="F208" s="75" t="e">
         <f t="shared" ref="F208:F269" si="14">SUM(D208-C208)/C208*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G208" s="62" t="s">
+      <c r="G208" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6545,11 +6533,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F209" s="76" t="e">
+      <c r="F209" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G209" s="62" t="s">
+      <c r="G209" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6570,11 +6558,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F210" s="76" t="e">
+      <c r="F210" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G210" s="62" t="s">
+      <c r="G210" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6595,11 +6583,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F211" s="76" t="e">
+      <c r="F211" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G211" s="62" t="s">
+      <c r="G211" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6620,11 +6608,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F212" s="76" t="e">
+      <c r="F212" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G212" s="62" t="s">
+      <c r="G212" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6647,11 +6635,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F213" s="76" t="e">
+      <c r="F213" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G213" s="63" t="s">
+      <c r="G213" s="62" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6663,10 +6651,10 @@
         <v>118</v>
       </c>
       <c r="C214" s="11"/>
-      <c r="D214" s="60"/>
+      <c r="D214" s="59"/>
       <c r="E214" s="14"/>
-      <c r="F214" s="76"/>
-      <c r="G214" s="66"/>
+      <c r="F214" s="75"/>
+      <c r="G214" s="65"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="13" t="s">
@@ -6685,11 +6673,11 @@
         <f t="shared" ref="E215:E225" si="15">D215-C215</f>
         <v>0</v>
       </c>
-      <c r="F215" s="76" t="e">
+      <c r="F215" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G215" s="62" t="s">
+      <c r="G215" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6710,11 +6698,11 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F216" s="76" t="e">
+      <c r="F216" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G216" s="62" t="s">
+      <c r="G216" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6735,11 +6723,11 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F217" s="76" t="e">
+      <c r="F217" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G217" s="62" t="s">
+      <c r="G217" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6760,11 +6748,11 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F218" s="76" t="e">
+      <c r="F218" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G218" s="62" t="s">
+      <c r="G218" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6785,11 +6773,11 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F219" s="76" t="e">
+      <c r="F219" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G219" s="62" t="s">
+      <c r="G219" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6810,11 +6798,11 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F220" s="76" t="e">
+      <c r="F220" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G220" s="62" t="s">
+      <c r="G220" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6833,11 +6821,11 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F221" s="76" t="e">
+      <c r="F221" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G221" s="62" t="s">
+      <c r="G221" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6856,11 +6844,11 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F222" s="76" t="e">
+      <c r="F222" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G222" s="62" t="s">
+      <c r="G222" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6881,11 +6869,11 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F223" s="76" t="e">
+      <c r="F223" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G223" s="62" t="s">
+      <c r="G223" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6906,11 +6894,11 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F224" s="76" t="e">
+      <c r="F224" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G224" s="62" t="s">
+      <c r="G224" s="61" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6933,11 +6921,11 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F225" s="76" t="e">
+      <c r="F225" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G225" s="63" t="s">
+      <c r="G225" s="62" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6949,10 +6937,10 @@
         <v>120</v>
       </c>
       <c r="C226" s="11"/>
-      <c r="D226" s="60"/>
+      <c r="D226" s="59"/>
       <c r="E226" s="14"/>
-      <c r="F226" s="76"/>
-      <c r="G226" s="63"/>
+      <c r="F226" s="75"/>
+      <c r="G226" s="62"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="13" t="s">
@@ -6962,10 +6950,10 @@
         <v>121</v>
       </c>
       <c r="C227" s="11"/>
-      <c r="D227" s="60"/>
+      <c r="D227" s="59"/>
       <c r="E227" s="14"/>
-      <c r="F227" s="76"/>
-      <c r="G227" s="62"/>
+      <c r="F227" s="75"/>
+      <c r="G227" s="61"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="13" t="s">
@@ -6984,11 +6972,11 @@
         <f t="shared" ref="E228:E234" si="16">D228-C228</f>
         <v>0</v>
       </c>
-      <c r="F228" s="76" t="e">
+      <c r="F228" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G228" s="62" t="s">
+      <c r="G228" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7009,11 +6997,11 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F229" s="76" t="e">
+      <c r="F229" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G229" s="62" t="s">
+      <c r="G229" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7034,11 +7022,11 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F230" s="76" t="e">
+      <c r="F230" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G230" s="62" t="s">
+      <c r="G230" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7059,11 +7047,11 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F231" s="76" t="e">
+      <c r="F231" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G231" s="62" t="s">
+      <c r="G231" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7082,11 +7070,11 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F232" s="76" t="e">
+      <c r="F232" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G232" s="62" t="s">
+      <c r="G232" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7107,11 +7095,11 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F233" s="76" t="e">
+      <c r="F233" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G233" s="62" t="s">
+      <c r="G233" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7134,11 +7122,11 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F234" s="76" t="e">
+      <c r="F234" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G234" s="63" t="s">
+      <c r="G234" s="62" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7150,10 +7138,10 @@
         <v>127</v>
       </c>
       <c r="C235" s="11"/>
-      <c r="D235" s="60"/>
+      <c r="D235" s="59"/>
       <c r="E235" s="14"/>
-      <c r="F235" s="76"/>
-      <c r="G235" s="63"/>
+      <c r="F235" s="75"/>
+      <c r="G235" s="62"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="13" t="s">
@@ -7172,11 +7160,11 @@
         <f t="shared" ref="E236:E246" si="17">D236-C236</f>
         <v>0</v>
       </c>
-      <c r="F236" s="76" t="e">
+      <c r="F236" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G236" s="62" t="s">
+      <c r="G236" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7197,11 +7185,11 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F237" s="76" t="e">
+      <c r="F237" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G237" s="62" t="s">
+      <c r="G237" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7222,11 +7210,11 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F238" s="76" t="e">
+      <c r="F238" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G238" s="62" t="s">
+      <c r="G238" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7247,11 +7235,11 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F239" s="76" t="e">
+      <c r="F239" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G239" s="62" t="s">
+      <c r="G239" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7274,11 +7262,11 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F240" s="76" t="e">
+      <c r="F240" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G240" s="63" t="s">
+      <c r="G240" s="62" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7290,10 +7278,10 @@
         <v>128</v>
       </c>
       <c r="C241" s="11"/>
-      <c r="D241" s="60"/>
+      <c r="D241" s="59"/>
       <c r="E241" s="14"/>
-      <c r="F241" s="76"/>
-      <c r="G241" s="63"/>
+      <c r="F241" s="75"/>
+      <c r="G241" s="62"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="13" t="s">
@@ -7312,11 +7300,11 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F242" s="76" t="e">
+      <c r="F242" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G242" s="62" t="s">
+      <c r="G242" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7337,11 +7325,11 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F243" s="76" t="e">
+      <c r="F243" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G243" s="62" t="s">
+      <c r="G243" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7362,11 +7350,11 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F244" s="76" t="e">
+      <c r="F244" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G244" s="62" t="s">
+      <c r="G244" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7387,11 +7375,11 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F245" s="76" t="e">
+      <c r="F245" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G245" s="62" t="s">
+      <c r="G245" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7414,11 +7402,11 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F246" s="76" t="e">
+      <c r="F246" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G246" s="63" t="s">
+      <c r="G246" s="62" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7430,10 +7418,10 @@
         <v>129</v>
       </c>
       <c r="C247" s="11"/>
-      <c r="D247" s="60"/>
+      <c r="D247" s="59"/>
       <c r="E247" s="14"/>
-      <c r="F247" s="76"/>
-      <c r="G247" s="63"/>
+      <c r="F247" s="75"/>
+      <c r="G247" s="62"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="13" t="s">
@@ -7445,10 +7433,10 @@
       <c r="C248" s="47">
         <v>0</v>
       </c>
-      <c r="D248" s="60"/>
+      <c r="D248" s="59"/>
       <c r="E248" s="14"/>
-      <c r="F248" s="76"/>
-      <c r="G248" s="62"/>
+      <c r="F248" s="75"/>
+      <c r="G248" s="61"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="13" t="s">
@@ -7467,11 +7455,11 @@
         <f t="shared" ref="E249:E263" si="18">D249-C249</f>
         <v>0</v>
       </c>
-      <c r="F249" s="76" t="e">
+      <c r="F249" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G249" s="62" t="s">
+      <c r="G249" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7492,11 +7480,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F250" s="76" t="e">
+      <c r="F250" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G250" s="62" t="s">
+      <c r="G250" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7517,11 +7505,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F251" s="76" t="e">
+      <c r="F251" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G251" s="62" t="s">
+      <c r="G251" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7540,11 +7528,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F252" s="76" t="e">
+      <c r="F252" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G252" s="62" t="s">
+      <c r="G252" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7563,11 +7551,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F253" s="76" t="e">
+      <c r="F253" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G253" s="62" t="s">
+      <c r="G253" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7586,11 +7574,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F254" s="76" t="e">
+      <c r="F254" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G254" s="62" t="s">
+      <c r="G254" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7609,11 +7597,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F255" s="76" t="e">
+      <c r="F255" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G255" s="62" t="s">
+      <c r="G255" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7632,11 +7620,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F256" s="76" t="e">
+      <c r="F256" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G256" s="62" t="s">
+      <c r="G256" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7655,11 +7643,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F257" s="76" t="e">
+      <c r="F257" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G257" s="62" t="s">
+      <c r="G257" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7678,11 +7666,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F258" s="76" t="e">
+      <c r="F258" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G258" s="62" t="s">
+      <c r="G258" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7701,11 +7689,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F259" s="76" t="e">
+      <c r="F259" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G259" s="62" t="s">
+      <c r="G259" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7726,11 +7714,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F260" s="76" t="e">
+      <c r="F260" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G260" s="62" t="s">
+      <c r="G260" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7751,11 +7739,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F261" s="76" t="e">
+      <c r="F261" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G261" s="62" t="s">
+      <c r="G261" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7776,11 +7764,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F262" s="76" t="e">
+      <c r="F262" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G262" s="62" t="s">
+      <c r="G262" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7801,11 +7789,11 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F263" s="76" t="e">
+      <c r="F263" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G263" s="62" t="s">
+      <c r="G263" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7821,8 +7809,8 @@
         <v>0</v>
       </c>
       <c r="E264" s="14"/>
-      <c r="F264" s="76"/>
-      <c r="G264" s="62"/>
+      <c r="F264" s="75"/>
+      <c r="G264" s="61"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="13"/>
@@ -7839,11 +7827,11 @@
         <f t="shared" ref="E265:E269" si="19">D265-C265</f>
         <v>0</v>
       </c>
-      <c r="F265" s="76" t="e">
+      <c r="F265" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G265" s="62" t="s">
+      <c r="G265" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7862,11 +7850,11 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F266" s="76" t="e">
+      <c r="F266" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G266" s="62" t="s">
+      <c r="G266" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7885,11 +7873,11 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F267" s="76" t="e">
+      <c r="F267" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G267" s="62" t="s">
+      <c r="G267" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7908,11 +7896,11 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F268" s="76" t="e">
+      <c r="F268" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G268" s="62" t="s">
+      <c r="G268" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7933,11 +7921,11 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F269" s="76" t="e">
+      <c r="F269" s="75" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G269" s="63" t="s">
+      <c r="G269" s="62" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7949,10 +7937,10 @@
         <v>150</v>
       </c>
       <c r="C270" s="11"/>
-      <c r="D270" s="60"/>
+      <c r="D270" s="59"/>
       <c r="E270" s="14"/>
-      <c r="F270" s="76"/>
-      <c r="G270" s="63"/>
+      <c r="F270" s="75"/>
+      <c r="G270" s="62"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="13" t="s">
@@ -7971,11 +7959,11 @@
         <f t="shared" ref="E271:E279" si="20">D271-C271</f>
         <v>0</v>
       </c>
-      <c r="F271" s="76" t="e">
+      <c r="F271" s="75" t="e">
         <f t="shared" ref="F271:F334" si="21">SUM(D271-C271)/C271*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G271" s="62" t="s">
+      <c r="G271" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7996,11 +7984,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F272" s="76" t="e">
+      <c r="F272" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G272" s="62" t="s">
+      <c r="G272" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8021,11 +8009,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F273" s="76" t="e">
+      <c r="F273" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G273" s="62" t="s">
+      <c r="G273" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8046,11 +8034,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F274" s="76" t="e">
+      <c r="F274" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G274" s="62" t="s">
+      <c r="G274" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8071,11 +8059,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F275" s="76" t="e">
+      <c r="F275" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G275" s="62" t="s">
+      <c r="G275" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8096,11 +8084,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F276" s="76" t="e">
+      <c r="F276" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G276" s="62" t="s">
+      <c r="G276" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8121,11 +8109,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F277" s="76" t="e">
+      <c r="F277" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G277" s="62" t="s">
+      <c r="G277" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8144,11 +8132,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F278" s="76" t="e">
+      <c r="F278" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G278" s="62" t="s">
+      <c r="G278" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8171,11 +8159,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F279" s="76" t="e">
+      <c r="F279" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G279" s="63" t="s">
+      <c r="G279" s="62" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8187,10 +8175,10 @@
         <v>159</v>
       </c>
       <c r="C280" s="11"/>
-      <c r="D280" s="60"/>
+      <c r="D280" s="59"/>
       <c r="E280" s="14"/>
-      <c r="F280" s="76"/>
-      <c r="G280" s="63"/>
+      <c r="F280" s="75"/>
+      <c r="G280" s="62"/>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="13" t="s">
@@ -8209,11 +8197,11 @@
         <f t="shared" ref="E281:E285" si="22">D281-C281</f>
         <v>0</v>
       </c>
-      <c r="F281" s="76" t="e">
+      <c r="F281" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G281" s="62" t="s">
+      <c r="G281" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8234,11 +8222,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="F282" s="76" t="e">
+      <c r="F282" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G282" s="62" t="s">
+      <c r="G282" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8259,11 +8247,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="F283" s="76" t="e">
+      <c r="F283" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G283" s="62" t="s">
+      <c r="G283" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8284,11 +8272,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="F284" s="76" t="e">
+      <c r="F284" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G284" s="62" t="s">
+      <c r="G284" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8309,11 +8297,11 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="F285" s="76" t="e">
+      <c r="F285" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G285" s="62" t="s">
+      <c r="G285" s="61" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8325,10 +8313,10 @@
         <v>161</v>
       </c>
       <c r="C286" s="11"/>
-      <c r="D286" s="60"/>
+      <c r="D286" s="59"/>
       <c r="E286" s="14"/>
-      <c r="F286" s="76"/>
-      <c r="G286" s="63"/>
+      <c r="F286" s="75"/>
+      <c r="G286" s="62"/>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="13" t="s">
@@ -8347,11 +8335,11 @@
         <f t="shared" ref="E287:E291" si="23">D287-C287</f>
         <v>0</v>
       </c>
-      <c r="F287" s="76" t="e">
+      <c r="F287" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G287" s="62" t="s">
+      <c r="G287" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8372,11 +8360,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="F288" s="76" t="e">
+      <c r="F288" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G288" s="62" t="s">
+      <c r="G288" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8395,11 +8383,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="F289" s="76" t="e">
+      <c r="F289" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G289" s="62" t="s">
+      <c r="G289" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8420,11 +8408,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="F290" s="76" t="e">
+      <c r="F290" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G290" s="62" t="s">
+      <c r="G290" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8445,11 +8433,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="F291" s="76" t="e">
+      <c r="F291" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G291" s="62" t="s">
+      <c r="G291" s="61" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8461,10 +8449,10 @@
         <v>219</v>
       </c>
       <c r="C292" s="11"/>
-      <c r="D292" s="60"/>
+      <c r="D292" s="59"/>
       <c r="E292" s="14"/>
-      <c r="F292" s="76"/>
-      <c r="G292" s="63"/>
+      <c r="F292" s="75"/>
+      <c r="G292" s="62"/>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="13"/>
@@ -8481,11 +8469,11 @@
         <f t="shared" ref="E293:E297" si="24">D293-C293</f>
         <v>0</v>
       </c>
-      <c r="F293" s="76" t="e">
+      <c r="F293" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G293" s="62" t="s">
+      <c r="G293" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8504,11 +8492,11 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="F294" s="76" t="e">
+      <c r="F294" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G294" s="62" t="s">
+      <c r="G294" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8527,11 +8515,11 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="F295" s="76" t="e">
+      <c r="F295" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G295" s="62" t="s">
+      <c r="G295" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8550,11 +8538,11 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="F296" s="76" t="e">
+      <c r="F296" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G296" s="62" t="s">
+      <c r="G296" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8573,11 +8561,11 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="F297" s="76" t="e">
+      <c r="F297" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G297" s="62" t="s">
+      <c r="G297" s="61" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8589,10 +8577,10 @@
         <v>220</v>
       </c>
       <c r="C298" s="11"/>
-      <c r="D298" s="60"/>
+      <c r="D298" s="59"/>
       <c r="E298" s="14"/>
-      <c r="F298" s="76"/>
-      <c r="G298" s="63"/>
+      <c r="F298" s="75"/>
+      <c r="G298" s="62"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="13" t="s">
@@ -8611,11 +8599,11 @@
         <f t="shared" ref="E299:E303" si="25">D299-C299</f>
         <v>0</v>
       </c>
-      <c r="F299" s="76" t="e">
+      <c r="F299" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G299" s="62" t="s">
+      <c r="G299" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8636,11 +8624,11 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F300" s="76" t="e">
+      <c r="F300" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G300" s="62" t="s">
+      <c r="G300" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8661,11 +8649,11 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F301" s="76" t="e">
+      <c r="F301" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G301" s="62" t="s">
+      <c r="G301" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8686,11 +8674,11 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F302" s="76" t="e">
+      <c r="F302" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G302" s="62" t="s">
+      <c r="G302" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8711,11 +8699,11 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F303" s="76" t="e">
+      <c r="F303" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G303" s="62" t="s">
+      <c r="G303" s="61" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8726,11 +8714,11 @@
       <c r="B304" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C304" s="49"/>
-      <c r="D304" s="60"/>
+      <c r="C304" s="48"/>
+      <c r="D304" s="59"/>
       <c r="E304" s="14"/>
-      <c r="F304" s="76"/>
-      <c r="G304" s="49"/>
+      <c r="F304" s="75"/>
+      <c r="G304" s="48"/>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="13"/>
@@ -8747,11 +8735,11 @@
         <f t="shared" ref="E305:E309" si="26">D305-C305</f>
         <v>0</v>
       </c>
-      <c r="F305" s="76" t="e">
+      <c r="F305" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G305" s="62" t="s">
+      <c r="G305" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8770,11 +8758,11 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F306" s="76" t="e">
+      <c r="F306" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G306" s="62" t="s">
+      <c r="G306" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8793,11 +8781,11 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F307" s="76" t="e">
+      <c r="F307" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G307" s="62" t="s">
+      <c r="G307" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8816,11 +8804,11 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F308" s="76" t="e">
+      <c r="F308" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G308" s="62" t="s">
+      <c r="G308" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8839,11 +8827,11 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F309" s="76" t="e">
+      <c r="F309" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G309" s="62" t="s">
+      <c r="G309" s="61" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8854,11 +8842,11 @@
       <c r="B310" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C310" s="49"/>
-      <c r="D310" s="60"/>
+      <c r="C310" s="48"/>
+      <c r="D310" s="59"/>
       <c r="E310" s="14"/>
-      <c r="F310" s="76"/>
-      <c r="G310" s="49"/>
+      <c r="F310" s="75"/>
+      <c r="G310" s="48"/>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="13"/>
@@ -8875,11 +8863,11 @@
         <f t="shared" ref="E311:E315" si="27">D311-C311</f>
         <v>0</v>
       </c>
-      <c r="F311" s="76" t="e">
+      <c r="F311" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G311" s="62" t="s">
+      <c r="G311" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8898,11 +8886,11 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="F312" s="76" t="e">
+      <c r="F312" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G312" s="62" t="s">
+      <c r="G312" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8921,11 +8909,11 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="F313" s="76" t="e">
+      <c r="F313" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G313" s="62" t="s">
+      <c r="G313" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8944,11 +8932,11 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="F314" s="76" t="e">
+      <c r="F314" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G314" s="62" t="s">
+      <c r="G314" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8967,11 +8955,11 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="F315" s="76" t="e">
+      <c r="F315" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G315" s="62" t="s">
+      <c r="G315" s="61" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8982,11 +8970,11 @@
       <c r="B316" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C316" s="49"/>
-      <c r="D316" s="60"/>
+      <c r="C316" s="48"/>
+      <c r="D316" s="59"/>
       <c r="E316" s="14"/>
-      <c r="F316" s="76"/>
-      <c r="G316" s="49"/>
+      <c r="F316" s="75"/>
+      <c r="G316" s="48"/>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="13"/>
@@ -9003,11 +8991,11 @@
         <f t="shared" ref="E317:E321" si="28">D317-C317</f>
         <v>0</v>
       </c>
-      <c r="F317" s="76" t="e">
+      <c r="F317" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G317" s="62" t="s">
+      <c r="G317" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9026,11 +9014,11 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="F318" s="76" t="e">
+      <c r="F318" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G318" s="62" t="s">
+      <c r="G318" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9049,11 +9037,11 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="F319" s="76" t="e">
+      <c r="F319" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G319" s="62" t="s">
+      <c r="G319" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9072,11 +9060,11 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="F320" s="76" t="e">
+      <c r="F320" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G320" s="62" t="s">
+      <c r="G320" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9095,11 +9083,11 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="F321" s="76" t="e">
+      <c r="F321" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G321" s="62" t="s">
+      <c r="G321" s="61" t="s">
         <v>99</v>
       </c>
     </row>
@@ -9117,8 +9105,8 @@
         <v>0</v>
       </c>
       <c r="E322" s="14"/>
-      <c r="F322" s="76"/>
-      <c r="G322" s="63"/>
+      <c r="F322" s="75"/>
+      <c r="G322" s="62"/>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
@@ -9135,11 +9123,11 @@
         <f t="shared" ref="E323:E329" si="29">D323-C323</f>
         <v>0</v>
       </c>
-      <c r="F323" s="76" t="e">
+      <c r="F323" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G323" s="62" t="s">
+      <c r="G323" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9160,11 +9148,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F324" s="76" t="e">
+      <c r="F324" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G324" s="62" t="s">
+      <c r="G324" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9185,11 +9173,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F325" s="76" t="e">
+      <c r="F325" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G325" s="62" t="s">
+      <c r="G325" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9210,11 +9198,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F326" s="76" t="e">
+      <c r="F326" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G326" s="62" t="s">
+      <c r="G326" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9235,11 +9223,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F327" s="76" t="e">
+      <c r="F327" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G327" s="62" t="s">
+      <c r="G327" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9260,11 +9248,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F328" s="76" t="e">
+      <c r="F328" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G328" s="62" t="s">
+      <c r="G328" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -9283,11 +9271,11 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F329" s="76" t="e">
+      <c r="F329" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G329" s="62" t="s">
+      <c r="G329" s="61" t="s">
         <v>99</v>
       </c>
     </row>
@@ -9305,8 +9293,8 @@
         <v>0</v>
       </c>
       <c r="E330" s="14"/>
-      <c r="F330" s="76"/>
-      <c r="G330" s="62"/>
+      <c r="F330" s="75"/>
+      <c r="G330" s="61"/>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="13"/>
@@ -9323,11 +9311,11 @@
         <f t="shared" ref="E331:E334" si="30">D331-C331</f>
         <v>0</v>
       </c>
-      <c r="F331" s="76" t="e">
+      <c r="F331" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G331" s="62" t="s">
+      <c r="G331" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9346,11 +9334,11 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="F332" s="76" t="e">
+      <c r="F332" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G332" s="62" t="s">
+      <c r="G332" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9369,11 +9357,11 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="F333" s="76" t="e">
+      <c r="F333" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G333" s="62" t="s">
+      <c r="G333" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9394,11 +9382,11 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="F334" s="76" t="e">
+      <c r="F334" s="75" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G334" s="62" t="s">
+      <c r="G334" s="61" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9409,11 +9397,11 @@
       <c r="B335" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="C335" s="50"/>
-      <c r="D335" s="60"/>
+      <c r="C335" s="49"/>
+      <c r="D335" s="59"/>
       <c r="E335" s="14"/>
-      <c r="F335" s="76"/>
-      <c r="G335" s="62"/>
+      <c r="F335" s="75"/>
+      <c r="G335" s="61"/>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
@@ -9422,22 +9410,22 @@
       <c r="B336" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C336" s="51"/>
-      <c r="D336" s="60"/>
+      <c r="C336" s="50"/>
+      <c r="D336" s="59"/>
       <c r="E336" s="14"/>
-      <c r="F336" s="76"/>
-      <c r="G336" s="62"/>
+      <c r="F336" s="75"/>
+      <c r="G336" s="61"/>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="13"/>
       <c r="B337" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="C337" s="52"/>
-      <c r="D337" s="60"/>
+      <c r="C337" s="51"/>
+      <c r="D337" s="59"/>
       <c r="E337" s="14"/>
-      <c r="F337" s="76"/>
-      <c r="G337" s="62"/>
+      <c r="F337" s="75"/>
+      <c r="G337" s="61"/>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="13"/>
@@ -9454,11 +9442,11 @@
         <f t="shared" ref="E338:E344" si="31">D338-C338</f>
         <v>0</v>
       </c>
-      <c r="F338" s="76" t="e">
+      <c r="F338" s="75" t="e">
         <f t="shared" ref="F338:F399" si="32">SUM(D338-C338)/C338*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G338" s="67" t="s">
+      <c r="G338" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9477,11 +9465,11 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F339" s="76" t="e">
+      <c r="F339" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G339" s="67" t="s">
+      <c r="G339" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9500,11 +9488,11 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F340" s="76" t="e">
+      <c r="F340" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G340" s="67" t="s">
+      <c r="G340" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9523,11 +9511,11 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F341" s="76" t="e">
+      <c r="F341" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G341" s="67" t="s">
+      <c r="G341" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9546,11 +9534,11 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F342" s="76" t="e">
+      <c r="F342" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G342" s="67" t="s">
+      <c r="G342" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9569,11 +9557,11 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F343" s="76" t="e">
+      <c r="F343" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G343" s="67" t="s">
+      <c r="G343" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9594,11 +9582,11 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F344" s="76" t="e">
+      <c r="F344" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G344" s="68" t="s">
+      <c r="G344" s="67" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9607,11 +9595,11 @@
       <c r="B345" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="C345" s="52"/>
-      <c r="D345" s="60"/>
+      <c r="C345" s="51"/>
+      <c r="D345" s="59"/>
       <c r="E345" s="14"/>
-      <c r="F345" s="76"/>
-      <c r="G345" s="62"/>
+      <c r="F345" s="75"/>
+      <c r="G345" s="61"/>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="13"/>
@@ -9628,11 +9616,11 @@
         <f t="shared" ref="E346:E350" si="33">D346-C346</f>
         <v>0</v>
       </c>
-      <c r="F346" s="76" t="e">
+      <c r="F346" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G346" s="67" t="s">
+      <c r="G346" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9651,11 +9639,11 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="F347" s="76" t="e">
+      <c r="F347" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G347" s="67" t="s">
+      <c r="G347" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9674,11 +9662,11 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="F348" s="76" t="e">
+      <c r="F348" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G348" s="67" t="s">
+      <c r="G348" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9697,11 +9685,11 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="F349" s="76" t="e">
+      <c r="F349" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G349" s="67" t="s">
+      <c r="G349" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9722,11 +9710,11 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="F350" s="76" t="e">
+      <c r="F350" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G350" s="67" t="s">
+      <c r="G350" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9735,11 +9723,11 @@
       <c r="B351" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="C351" s="53"/>
-      <c r="D351" s="60"/>
+      <c r="C351" s="52"/>
+      <c r="D351" s="59"/>
       <c r="E351" s="14"/>
-      <c r="F351" s="76"/>
-      <c r="G351" s="67"/>
+      <c r="F351" s="75"/>
+      <c r="G351" s="66"/>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="13"/>
@@ -9756,11 +9744,11 @@
         <f t="shared" ref="E352:E356" si="34">D352-C352</f>
         <v>0</v>
       </c>
-      <c r="F352" s="76" t="e">
+      <c r="F352" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G352" s="67" t="s">
+      <c r="G352" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9779,11 +9767,11 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="F353" s="76" t="e">
+      <c r="F353" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G353" s="67" t="s">
+      <c r="G353" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9802,11 +9790,11 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="F354" s="76" t="e">
+      <c r="F354" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G354" s="67" t="s">
+      <c r="G354" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9825,11 +9813,11 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="F355" s="76" t="e">
+      <c r="F355" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G355" s="67" t="s">
+      <c r="G355" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9850,11 +9838,11 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="F356" s="76" t="e">
+      <c r="F356" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G356" s="68" t="s">
+      <c r="G356" s="67" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9863,11 +9851,11 @@
       <c r="B357" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C357" s="52"/>
-      <c r="D357" s="60"/>
+      <c r="C357" s="51"/>
+      <c r="D357" s="59"/>
       <c r="E357" s="14"/>
-      <c r="F357" s="76"/>
-      <c r="G357" s="62"/>
+      <c r="F357" s="75"/>
+      <c r="G357" s="61"/>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="13"/>
@@ -9884,11 +9872,11 @@
         <f t="shared" ref="E358:E365" si="35">D358-C358</f>
         <v>0</v>
       </c>
-      <c r="F358" s="76" t="e">
+      <c r="F358" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G358" s="67" t="s">
+      <c r="G358" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9907,11 +9895,11 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="F359" s="76" t="e">
+      <c r="F359" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G359" s="67" t="s">
+      <c r="G359" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9930,11 +9918,11 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="F360" s="76" t="e">
+      <c r="F360" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G360" s="67" t="s">
+      <c r="G360" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9953,11 +9941,11 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="F361" s="76" t="e">
+      <c r="F361" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G361" s="67" t="s">
+      <c r="G361" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9976,11 +9964,11 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="F362" s="76" t="e">
+      <c r="F362" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G362" s="67" t="s">
+      <c r="G362" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9999,11 +9987,11 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="F363" s="76" t="e">
+      <c r="F363" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G363" s="67" t="s">
+      <c r="G363" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -10022,11 +10010,11 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="F364" s="76" t="e">
+      <c r="F364" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G364" s="67" t="s">
+      <c r="G364" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -10047,11 +10035,11 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="F365" s="76" t="e">
+      <c r="F365" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G365" s="68" t="s">
+      <c r="G365" s="67" t="s">
         <v>107</v>
       </c>
     </row>
@@ -10062,11 +10050,11 @@
       <c r="B366" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="C366" s="51"/>
-      <c r="D366" s="60"/>
+      <c r="C366" s="50"/>
+      <c r="D366" s="59"/>
       <c r="E366" s="14"/>
-      <c r="F366" s="76"/>
-      <c r="G366" s="51"/>
+      <c r="F366" s="75"/>
+      <c r="G366" s="50"/>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="26">
@@ -10075,11 +10063,11 @@
       <c r="B367" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="C367" s="51"/>
+      <c r="C367" s="50"/>
       <c r="D367" s="47"/>
       <c r="E367" s="14"/>
-      <c r="F367" s="76"/>
-      <c r="G367" s="62"/>
+      <c r="F367" s="75"/>
+      <c r="G367" s="61"/>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="26"/>
@@ -10096,11 +10084,11 @@
         <f t="shared" ref="E368:E372" si="36">D368-C368</f>
         <v>0</v>
       </c>
-      <c r="F368" s="76" t="e">
+      <c r="F368" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G368" s="67" t="s">
+      <c r="G368" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -10119,11 +10107,11 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F369" s="76" t="e">
+      <c r="F369" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G369" s="67" t="s">
+      <c r="G369" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -10142,11 +10130,11 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F370" s="76" t="e">
+      <c r="F370" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G370" s="67" t="s">
+      <c r="G370" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -10165,11 +10153,11 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F371" s="76" t="e">
+      <c r="F371" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G371" s="67" t="s">
+      <c r="G371" s="66" t="s">
         <v>107</v>
       </c>
     </row>
@@ -10190,11 +10178,11 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F372" s="76" t="e">
+      <c r="F372" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G372" s="68" t="s">
+      <c r="G372" s="67" t="s">
         <v>107</v>
       </c>
     </row>
@@ -10205,11 +10193,11 @@
       <c r="B373" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="C373" s="54"/>
-      <c r="D373" s="60"/>
+      <c r="C373" s="53"/>
+      <c r="D373" s="59"/>
       <c r="E373" s="14"/>
-      <c r="F373" s="76"/>
-      <c r="G373" s="62"/>
+      <c r="F373" s="75"/>
+      <c r="G373" s="61"/>
     </row>
     <row r="374" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="29">
@@ -10218,11 +10206,11 @@
       <c r="B374" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="C374" s="55"/>
-      <c r="D374" s="60"/>
+      <c r="C374" s="54"/>
+      <c r="D374" s="59"/>
       <c r="E374" s="14"/>
-      <c r="F374" s="76"/>
-      <c r="G374" s="62"/>
+      <c r="F374" s="75"/>
+      <c r="G374" s="61"/>
     </row>
     <row r="375" spans="1:7" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="31" t="s">
@@ -10231,11 +10219,11 @@
       <c r="B375" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="C375" s="56"/>
-      <c r="D375" s="60"/>
+      <c r="C375" s="55"/>
+      <c r="D375" s="59"/>
       <c r="E375" s="14"/>
-      <c r="F375" s="76"/>
-      <c r="G375" s="62"/>
+      <c r="F375" s="75"/>
+      <c r="G375" s="61"/>
     </row>
     <row r="376" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="31"/>
@@ -10252,11 +10240,11 @@
         <f t="shared" ref="E376:E384" si="37">D376-C376</f>
         <v>0</v>
       </c>
-      <c r="F376" s="76" t="e">
+      <c r="F376" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G376" s="69" t="s">
+      <c r="G376" s="68" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10275,11 +10263,11 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F377" s="76" t="e">
+      <c r="F377" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G377" s="70" t="s">
+      <c r="G377" s="69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10298,11 +10286,11 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F378" s="76" t="e">
+      <c r="F378" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G378" s="70" t="s">
+      <c r="G378" s="69" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10321,11 +10309,11 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F379" s="76" t="e">
+      <c r="F379" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G379" s="70" t="s">
+      <c r="G379" s="69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10344,11 +10332,11 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F380" s="76" t="e">
+      <c r="F380" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G380" s="70" t="s">
+      <c r="G380" s="69" t="s">
         <v>252</v>
       </c>
     </row>
@@ -10367,11 +10355,11 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F381" s="76" t="e">
+      <c r="F381" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G381" s="70" t="s">
+      <c r="G381" s="69" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10390,11 +10378,11 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F382" s="76" t="e">
+      <c r="F382" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G382" s="70" t="s">
+      <c r="G382" s="69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10413,11 +10401,11 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F383" s="76" t="e">
+      <c r="F383" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G383" s="70" t="s">
+      <c r="G383" s="69" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10436,11 +10424,11 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F384" s="76" t="e">
+      <c r="F384" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G384" s="70" t="s">
+      <c r="G384" s="69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10451,11 +10439,11 @@
       <c r="B385" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="C385" s="57"/>
-      <c r="D385" s="60"/>
+      <c r="C385" s="56"/>
+      <c r="D385" s="59"/>
       <c r="E385" s="14"/>
-      <c r="F385" s="76"/>
-      <c r="G385" s="71"/>
+      <c r="F385" s="75"/>
+      <c r="G385" s="70"/>
     </row>
     <row r="386" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" s="31"/>
@@ -10472,11 +10460,11 @@
         <f t="shared" ref="E386:E388" si="38">D386-C386</f>
         <v>0</v>
       </c>
-      <c r="F386" s="76" t="e">
+      <c r="F386" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G386" s="70" t="s">
+      <c r="G386" s="69" t="s">
         <v>253</v>
       </c>
     </row>
@@ -10495,11 +10483,11 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F387" s="76" t="e">
+      <c r="F387" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G387" s="70" t="s">
+      <c r="G387" s="69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10518,11 +10506,11 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F388" s="76" t="e">
+      <c r="F388" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G388" s="70" t="s">
+      <c r="G388" s="69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10533,11 +10521,11 @@
       <c r="B389" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="C389" s="57"/>
+      <c r="C389" s="56"/>
       <c r="D389" s="47"/>
       <c r="E389" s="14"/>
-      <c r="F389" s="76"/>
-      <c r="G389" s="72"/>
+      <c r="F389" s="75"/>
+      <c r="G389" s="71"/>
     </row>
     <row r="390" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="31"/>
@@ -10554,11 +10542,11 @@
         <f t="shared" ref="E390:E402" si="39">D390-C390</f>
         <v>0</v>
       </c>
-      <c r="F390" s="76" t="e">
+      <c r="F390" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G390" s="70" t="s">
+      <c r="G390" s="69" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10577,11 +10565,11 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F391" s="76" t="e">
+      <c r="F391" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G391" s="70" t="s">
+      <c r="G391" s="69" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10600,11 +10588,11 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F392" s="76" t="e">
+      <c r="F392" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G392" s="70" t="s">
+      <c r="G392" s="69" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10623,11 +10611,11 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F393" s="76" t="e">
+      <c r="F393" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G393" s="70" t="s">
+      <c r="G393" s="69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10646,11 +10634,11 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F394" s="76" t="e">
+      <c r="F394" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G394" s="70" t="s">
+      <c r="G394" s="69" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10669,11 +10657,11 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F395" s="76" t="e">
+      <c r="F395" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G395" s="70" t="s">
+      <c r="G395" s="69" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10692,11 +10680,11 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F396" s="76" t="e">
+      <c r="F396" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G396" s="70" t="s">
+      <c r="G396" s="69" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10715,11 +10703,11 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F397" s="76" t="e">
+      <c r="F397" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G397" s="70" t="s">
+      <c r="G397" s="69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10738,11 +10726,11 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F398" s="76" t="e">
+      <c r="F398" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G398" s="73" t="s">
+      <c r="G398" s="72" t="s">
         <v>283</v>
       </c>
     </row>
@@ -10761,11 +10749,11 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F399" s="76" t="e">
+      <c r="F399" s="75" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G399" s="70" t="s">
+      <c r="G399" s="69" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10784,11 +10772,11 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F400" s="76" t="e">
+      <c r="F400" s="75" t="e">
         <f t="shared" ref="F400:F408" si="40">SUM(D400-C400)/C400*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G400" s="70" t="s">
+      <c r="G400" s="69" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10807,11 +10795,11 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F401" s="76" t="e">
+      <c r="F401" s="75" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G401" s="70" t="s">
+      <c r="G401" s="69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10830,11 +10818,11 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F402" s="76" t="e">
+      <c r="F402" s="75" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G402" s="70" t="s">
+      <c r="G402" s="69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10845,11 +10833,11 @@
       <c r="B403" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="C403" s="57"/>
-      <c r="D403" s="60"/>
+      <c r="C403" s="56"/>
+      <c r="D403" s="59"/>
       <c r="E403" s="14"/>
-      <c r="F403" s="76"/>
-      <c r="G403" s="72"/>
+      <c r="F403" s="75"/>
+      <c r="G403" s="71"/>
     </row>
     <row r="404" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" s="31"/>
@@ -10866,11 +10854,11 @@
         <f t="shared" ref="E404:E408" si="41">D404-C404</f>
         <v>0</v>
       </c>
-      <c r="F404" s="76" t="e">
+      <c r="F404" s="75" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G404" s="70" t="s">
+      <c r="G404" s="69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10889,11 +10877,11 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="F405" s="76" t="e">
+      <c r="F405" s="75" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G405" s="70" t="s">
+      <c r="G405" s="69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10912,11 +10900,11 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="F406" s="76" t="e">
+      <c r="F406" s="75" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G406" s="70" t="s">
+      <c r="G406" s="69" t="s">
         <v>262</v>
       </c>
     </row>
@@ -10935,11 +10923,11 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="F407" s="76" t="e">
+      <c r="F407" s="75" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G407" s="70" t="s">
+      <c r="G407" s="69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10958,11 +10946,11 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="F408" s="76" t="e">
+      <c r="F408" s="75" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G408" s="70" t="s">
+      <c r="G408" s="69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10973,11 +10961,11 @@
       <c r="B409" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="C409" s="54"/>
-      <c r="D409" s="60"/>
+      <c r="C409" s="53"/>
+      <c r="D409" s="59"/>
       <c r="E409" s="14"/>
-      <c r="F409" s="76"/>
-      <c r="G409" s="62"/>
+      <c r="F409" s="75"/>
+      <c r="G409" s="61"/>
     </row>
     <row r="410" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A410" s="29">
@@ -10986,11 +10974,11 @@
       <c r="B410" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="C410" s="55"/>
-      <c r="D410" s="60"/>
+      <c r="C410" s="54"/>
+      <c r="D410" s="59"/>
       <c r="E410" s="14"/>
-      <c r="F410" s="76"/>
-      <c r="G410" s="62"/>
+      <c r="F410" s="75"/>
+      <c r="G410" s="61"/>
     </row>
     <row r="411" spans="1:7" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A411" s="31"/>
@@ -11007,11 +10995,11 @@
         <f t="shared" ref="E411:E415" si="42">D411-C411</f>
         <v>0</v>
       </c>
-      <c r="F411" s="76" t="e">
+      <c r="F411" s="75" t="e">
         <f t="shared" ref="F411:F413" si="43">SUM(D411-C411)/C411*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G411" s="62" t="s">
+      <c r="G411" s="61" t="s">
         <v>107</v>
       </c>
     </row>
@@ -11030,11 +11018,11 @@
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="F412" s="76" t="e">
+      <c r="F412" s="75" t="e">
         <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G412" s="62" t="s">
+      <c r="G412" s="61" t="s">
         <v>107</v>
       </c>
     </row>
@@ -11053,11 +11041,11 @@
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="F413" s="76" t="e">
+      <c r="F413" s="75" t="e">
         <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G413" s="62" t="s">
+      <c r="G413" s="61" t="s">
         <v>107</v>
       </c>
     </row>
@@ -11076,11 +11064,11 @@
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="F414" s="76" t="e">
+      <c r="F414" s="75" t="e">
         <f t="shared" ref="F414" si="44">SUM(D414-C414)/C414*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G414" s="62" t="s">
+      <c r="G414" s="61" t="s">
         <v>107</v>
       </c>
     </row>
@@ -11089,11 +11077,11 @@
       <c r="B415" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C415" s="58">
+      <c r="C415" s="57">
         <f>SUM(C411:C414)</f>
         <v>0</v>
       </c>
-      <c r="D415" s="61">
+      <c r="D415" s="60">
         <f>SUM(D411:D414)</f>
         <v>0</v>
       </c>
@@ -11101,47 +11089,47 @@
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="F415" s="77" t="e">
+      <c r="F415" s="76" t="e">
         <f>SUM(D415-C415)/C415*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G415" s="74" t="s">
+      <c r="G415" s="73" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="416" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="75" t="s">
+      <c r="A416" s="74" t="s">
         <v>291</v>
       </c>
       <c r="B416" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="C416" s="80"/>
-      <c r="D416" s="61"/>
+      <c r="C416" s="79"/>
+      <c r="D416" s="60"/>
       <c r="E416" s="14"/>
-      <c r="F416" s="77"/>
-      <c r="G416" s="74"/>
+      <c r="F416" s="76"/>
+      <c r="G416" s="73"/>
     </row>
     <row r="417" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A417" s="36"/>
       <c r="B417" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="C417" s="80">
-        <v>0</v>
-      </c>
-      <c r="D417" s="61">
+      <c r="C417" s="79">
+        <v>0</v>
+      </c>
+      <c r="D417" s="60">
         <v>0</v>
       </c>
       <c r="E417" s="14">
         <f>D417-C417</f>
         <v>0</v>
       </c>
-      <c r="F417" s="77" t="e">
+      <c r="F417" s="76" t="e">
         <f t="shared" ref="F417:F422" si="45">SUM(D417-C417)/C417*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G417" s="74" t="s">
+      <c r="G417" s="73" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11150,21 +11138,21 @@
       <c r="B418" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C418" s="80">
-        <v>0</v>
-      </c>
-      <c r="D418" s="61">
+      <c r="C418" s="79">
+        <v>0</v>
+      </c>
+      <c r="D418" s="60">
         <v>0</v>
       </c>
       <c r="E418" s="14">
         <f t="shared" ref="E418:E422" si="46">D418-C418</f>
         <v>0</v>
       </c>
-      <c r="F418" s="77" t="e">
+      <c r="F418" s="76" t="e">
         <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G418" s="74" t="s">
+      <c r="G418" s="73" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11173,21 +11161,21 @@
       <c r="B419" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C419" s="80">
-        <v>0</v>
-      </c>
-      <c r="D419" s="61">
+      <c r="C419" s="79">
+        <v>0</v>
+      </c>
+      <c r="D419" s="60">
         <v>0</v>
       </c>
       <c r="E419" s="14">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F419" s="77" t="e">
+      <c r="F419" s="76" t="e">
         <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G419" s="74" t="s">
+      <c r="G419" s="73" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11196,21 +11184,21 @@
       <c r="B420" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C420" s="80">
-        <v>0</v>
-      </c>
-      <c r="D420" s="61">
+      <c r="C420" s="79">
+        <v>0</v>
+      </c>
+      <c r="D420" s="60">
         <v>0</v>
       </c>
       <c r="E420" s="14">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F420" s="77" t="e">
+      <c r="F420" s="76" t="e">
         <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G420" s="74" t="s">
+      <c r="G420" s="73" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11219,34 +11207,34 @@
       <c r="B421" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C421" s="80">
-        <v>0</v>
-      </c>
-      <c r="D421" s="61">
+      <c r="C421" s="79">
+        <v>0</v>
+      </c>
+      <c r="D421" s="60">
         <v>0</v>
       </c>
       <c r="E421" s="14">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F421" s="77" t="e">
+      <c r="F421" s="76" t="e">
         <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G421" s="74" t="s">
+      <c r="G421" s="73" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A422" s="78"/>
-      <c r="B422" s="81" t="s">
+      <c r="A422" s="77"/>
+      <c r="B422" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C422" s="79">
+      <c r="C422" s="78">
         <f>SUM(C417:C421)</f>
         <v>0</v>
       </c>
-      <c r="D422" s="79">
+      <c r="D422" s="78">
         <f>SUM(D417:D421)</f>
         <v>0</v>
       </c>
@@ -11254,47 +11242,47 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F422" s="77" t="e">
+      <c r="F422" s="76" t="e">
         <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G422" s="74" t="s">
+      <c r="G422" s="73" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A423" s="82" t="s">
+      <c r="A423" s="81" t="s">
         <v>297</v>
       </c>
       <c r="B423" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="C423" s="80"/>
-      <c r="D423" s="61"/>
+      <c r="C423" s="79"/>
+      <c r="D423" s="60"/>
       <c r="E423" s="14"/>
-      <c r="F423" s="77"/>
-      <c r="G423" s="74"/>
+      <c r="F423" s="76"/>
+      <c r="G423" s="73"/>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="36"/>
       <c r="B424" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="C424" s="80">
-        <v>0</v>
-      </c>
-      <c r="D424" s="61">
+      <c r="C424" s="79">
+        <v>0</v>
+      </c>
+      <c r="D424" s="60">
         <v>0</v>
       </c>
       <c r="E424" s="14">
         <f>D424-C424</f>
         <v>0</v>
       </c>
-      <c r="F424" s="77" t="e">
+      <c r="F424" s="76" t="e">
         <f t="shared" ref="F424:F426" si="47">SUM(D424-C424)/C424*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G424" s="70" t="s">
+      <c r="G424" s="69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -11303,34 +11291,34 @@
       <c r="B425" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="C425" s="80">
-        <v>0</v>
-      </c>
-      <c r="D425" s="61">
+      <c r="C425" s="79">
+        <v>0</v>
+      </c>
+      <c r="D425" s="60">
         <v>0</v>
       </c>
       <c r="E425" s="14">
         <f t="shared" ref="E425:E426" si="48">D425-C425</f>
         <v>0</v>
       </c>
-      <c r="F425" s="77" t="e">
+      <c r="F425" s="76" t="e">
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G425" s="70" t="s">
+      <c r="G425" s="69" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A426" s="78"/>
-      <c r="B426" s="81" t="s">
+      <c r="A426" s="77"/>
+      <c r="B426" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C426" s="79">
+      <c r="C426" s="78">
         <f>SUM(C424:C425)</f>
         <v>0</v>
       </c>
-      <c r="D426" s="79">
+      <c r="D426" s="78">
         <f>SUM(D424:D425)</f>
         <v>0</v>
       </c>
@@ -11338,29 +11326,29 @@
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="F426" s="77" t="e">
+      <c r="F426" s="76" t="e">
         <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G426" s="70" t="s">
+      <c r="G426" s="69" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E428" s="94"/>
-      <c r="F428" s="94"/>
+      <c r="E428" s="87"/>
+      <c r="F428" s="87"/>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E429" s="94"/>
-      <c r="F429" s="94"/>
+      <c r="E429" s="87"/>
+      <c r="F429" s="87"/>
     </row>
     <row r="434" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E434" s="94"/>
-      <c r="F434" s="94"/>
+      <c r="E434" s="87"/>
+      <c r="F434" s="87"/>
     </row>
     <row r="435" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E435" s="94"/>
-      <c r="F435" s="94"/>
+      <c r="E435" s="87"/>
+      <c r="F435" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="10">
